--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_33.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1179476.321892507</v>
+        <v>1178829.349351323</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12279284.88778175</v>
+        <v>12279284.88778174</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681859</v>
+        <v>590120.9651681858</v>
       </c>
     </row>
     <row r="9">
@@ -1373,70 +1373,70 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>24.68690330538615</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.565094327417427</v>
+      </c>
+      <c r="U11" t="n">
+        <v>32.99210285748824</v>
+      </c>
+      <c r="V11" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="F11" t="n">
+      <c r="W11" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="G11" t="n">
-        <v>68.39702598806991</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.565094327417442</v>
-      </c>
-      <c r="U11" t="n">
-        <v>32.99210285748827</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>24.68690330538632</v>
       </c>
     </row>
     <row r="12">
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>6.191472723087853</v>
+        <v>6.191472723087824</v>
       </c>
       <c r="V12" t="n">
-        <v>13.45870707964394</v>
+        <v>13.45870707964391</v>
       </c>
       <c r="W12" t="n">
-        <v>31.53932278998886</v>
+        <v>31.53932278998883</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4251038644362608</v>
+        <v>0.4251038644362337</v>
       </c>
       <c r="T13" t="n">
-        <v>9.028675106938167</v>
+        <v>9.028675106938138</v>
       </c>
       <c r="U13" t="n">
-        <v>67.59134727882463</v>
+        <v>67.5913472788246</v>
       </c>
       <c r="V13" t="n">
-        <v>34.48632710692797</v>
+        <v>34.48632710692794</v>
       </c>
       <c r="W13" t="n">
-        <v>67.64255292740435</v>
+        <v>67.64255292740432</v>
       </c>
       <c r="X13" t="n">
-        <v>7.690335972298072</v>
+        <v>7.690335972298044</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2986499077570386</v>
+        <v>0.2986499077570102</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,64 +1616,64 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>32.99210285748833</v>
+      </c>
+      <c r="V14" t="n">
+        <v>27.25199763280364</v>
+      </c>
+      <c r="W14" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="G14" t="n">
+      <c r="X14" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="H14" t="n">
-        <v>68.39702598806991</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>32.99210285748827</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
       <c r="Y14" t="n">
-        <v>27.25199763280358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>6.191472723087853</v>
+        <v>6.19147272308791</v>
       </c>
       <c r="V15" t="n">
-        <v>13.45870707964394</v>
+        <v>13.458707079644</v>
       </c>
       <c r="W15" t="n">
-        <v>31.53932278998886</v>
+        <v>31.53932278998892</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4251038644362608</v>
+        <v>0.425103864436319</v>
       </c>
       <c r="T16" t="n">
-        <v>9.028675106938167</v>
+        <v>9.028675106938223</v>
       </c>
       <c r="U16" t="n">
-        <v>67.59134727882463</v>
+        <v>67.59134727882468</v>
       </c>
       <c r="V16" t="n">
-        <v>34.48632710692797</v>
+        <v>34.48632710692803</v>
       </c>
       <c r="W16" t="n">
-        <v>67.64255292740435</v>
+        <v>67.64255292740441</v>
       </c>
       <c r="X16" t="n">
-        <v>7.690335972298072</v>
+        <v>7.690335972298129</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.2986499077570386</v>
+        <v>0.2986499077570954</v>
       </c>
     </row>
     <row r="17">
@@ -1850,13 +1850,13 @@
         <v>6.074615754043805</v>
       </c>
       <c r="E17" t="n">
-        <v>32.58791875473287</v>
+        <v>32.58791875473283</v>
       </c>
       <c r="F17" t="n">
         <v>56.76374647998625</v>
       </c>
       <c r="G17" t="n">
-        <v>63.87918891521424</v>
+        <v>63.87918891521427</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>32.58791875473287</v>
       </c>
       <c r="F20" t="n">
-        <v>56.76374647998625</v>
+        <v>56.76374647998626</v>
       </c>
       <c r="G20" t="n">
         <v>63.87918891521427</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>162.7012917039664</v>
+        <v>162.7012917039665</v>
       </c>
       <c r="C26" t="n">
         <v>145.969977391514</v>
@@ -2561,16 +2561,16 @@
         <v>135.5896144671698</v>
       </c>
       <c r="E26" t="n">
-        <v>162.1029174678588</v>
+        <v>162.1029174678589</v>
       </c>
       <c r="F26" t="n">
-        <v>186.2787451931122</v>
+        <v>186.2787451931123</v>
       </c>
       <c r="G26" t="n">
-        <v>193.3941876283402</v>
+        <v>193.3941876283403</v>
       </c>
       <c r="H26" t="n">
-        <v>112.566723118609</v>
+        <v>112.5667231186091</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,10 +2609,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>30.42700853007085</v>
+        <v>30.42700853007088</v>
       </c>
       <c r="V26" t="n">
-        <v>107.5181032350907</v>
+        <v>107.5181032350908</v>
       </c>
       <c r="W26" t="n">
         <v>129.514998713126</v>
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>3.626378395670427</v>
+        <v>3.626378395670455</v>
       </c>
       <c r="V27" t="n">
-        <v>10.89361275222652</v>
+        <v>10.89361275222655</v>
       </c>
       <c r="W27" t="n">
-        <v>28.97422846257143</v>
+        <v>28.97422846257146</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>6.463580779520739</v>
+        <v>6.463580779520768</v>
       </c>
       <c r="U28" t="n">
-        <v>65.0262529514072</v>
+        <v>65.02625295140723</v>
       </c>
       <c r="V28" t="n">
-        <v>31.92123277951055</v>
+        <v>31.92123277951058</v>
       </c>
       <c r="W28" t="n">
-        <v>65.07745859998693</v>
+        <v>65.07745859998695</v>
       </c>
       <c r="X28" t="n">
-        <v>5.125241644880646</v>
+        <v>5.125241644880674</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>186.2787451931122</v>
       </c>
       <c r="G29" t="n">
-        <v>193.3941876283403</v>
+        <v>193.3941876283402</v>
       </c>
       <c r="H29" t="n">
         <v>112.566723118609</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>6.463580779520739</v>
+        <v>6.46358077952074</v>
       </c>
       <c r="U31" t="n">
         <v>65.0262529514072</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>162.7012917039665</v>
+        <v>162.7012917039664</v>
       </c>
       <c r="C32" t="n">
         <v>145.969977391514</v>
@@ -3035,16 +3035,16 @@
         <v>135.5896144671698</v>
       </c>
       <c r="E32" t="n">
-        <v>162.1029174678589</v>
+        <v>162.1029174678588</v>
       </c>
       <c r="F32" t="n">
-        <v>186.2787451931123</v>
+        <v>186.2787451931122</v>
       </c>
       <c r="G32" t="n">
         <v>193.3941876283403</v>
       </c>
       <c r="H32" t="n">
-        <v>112.5667231186091</v>
+        <v>112.566723118609</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>30.42700853007088</v>
+        <v>30.42700853007085</v>
       </c>
       <c r="V32" t="n">
-        <v>107.5181032350908</v>
+        <v>107.5181032350907</v>
       </c>
       <c r="W32" t="n">
         <v>129.514998713126</v>
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>3.626378395670455</v>
+        <v>3.626378395670427</v>
       </c>
       <c r="V33" t="n">
-        <v>10.89361275222655</v>
+        <v>10.89361275222652</v>
       </c>
       <c r="W33" t="n">
-        <v>28.97422846257146</v>
+        <v>28.97422846257143</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>6.463580779520767</v>
+        <v>6.46358077952074</v>
       </c>
       <c r="U34" t="n">
-        <v>65.02625295140723</v>
+        <v>65.0262529514072</v>
       </c>
       <c r="V34" t="n">
-        <v>31.92123277951058</v>
+        <v>31.92123277951055</v>
       </c>
       <c r="W34" t="n">
-        <v>65.07745859998695</v>
+        <v>65.07745859998693</v>
       </c>
       <c r="X34" t="n">
-        <v>5.125241644880674</v>
+        <v>5.125241644880646</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>140.5816934994247</v>
+        <v>140.5816934994246</v>
       </c>
       <c r="C35" t="n">
         <v>123.8503791869722</v>
@@ -3272,16 +3272,16 @@
         <v>113.470016262628</v>
       </c>
       <c r="E35" t="n">
-        <v>139.9833192633171</v>
+        <v>139.983319263317</v>
       </c>
       <c r="F35" t="n">
-        <v>164.1591469885705</v>
+        <v>164.1591469885704</v>
       </c>
       <c r="G35" t="n">
         <v>171.2745894237985</v>
       </c>
       <c r="H35" t="n">
-        <v>90.44712491406727</v>
+        <v>90.44712491406725</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>8.307410325529073</v>
+        <v>8.307410325529048</v>
       </c>
       <c r="V35" t="n">
-        <v>85.39850503054896</v>
+        <v>85.39850503054893</v>
       </c>
       <c r="W35" t="n">
         <v>107.3954005085842</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>6.854630258029658</v>
+        <v>6.85463025802963</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>42.90665474686543</v>
+        <v>42.9066547468654</v>
       </c>
       <c r="V37" t="n">
-        <v>9.801634574968773</v>
+        <v>9.801634574968745</v>
       </c>
       <c r="W37" t="n">
-        <v>42.95786039544515</v>
+        <v>42.95786039544512</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>140.5816934994247</v>
+        <v>140.5816934994246</v>
       </c>
       <c r="C38" t="n">
         <v>123.8503791869722</v>
@@ -3509,16 +3509,16 @@
         <v>113.470016262628</v>
       </c>
       <c r="E38" t="n">
-        <v>139.9833192633171</v>
+        <v>139.983319263317</v>
       </c>
       <c r="F38" t="n">
-        <v>164.1591469885705</v>
+        <v>164.1591469885704</v>
       </c>
       <c r="G38" t="n">
-        <v>171.2745894237985</v>
+        <v>171.2745894237984</v>
       </c>
       <c r="H38" t="n">
-        <v>90.44712491406727</v>
+        <v>90.44712491406725</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>8.307410325529077</v>
+        <v>8.307410325529045</v>
       </c>
       <c r="V38" t="n">
-        <v>85.39850503054896</v>
+        <v>85.39850503054893</v>
       </c>
       <c r="W38" t="n">
         <v>107.3954005085842</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>6.854630258029658</v>
+        <v>6.85463025802963</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>42.90665474686543</v>
+        <v>42.9066547468654</v>
       </c>
       <c r="V40" t="n">
-        <v>9.801634574968773</v>
+        <v>9.801634574968745</v>
       </c>
       <c r="W40" t="n">
-        <v>42.95786039544515</v>
+        <v>42.95786039544512</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>140.5816934994247</v>
+        <v>140.5816934994246</v>
       </c>
       <c r="C41" t="n">
         <v>123.8503791869722</v>
@@ -3746,16 +3746,16 @@
         <v>113.470016262628</v>
       </c>
       <c r="E41" t="n">
-        <v>139.9833192633171</v>
+        <v>139.983319263317</v>
       </c>
       <c r="F41" t="n">
-        <v>164.1591469885705</v>
+        <v>164.1591469885704</v>
       </c>
       <c r="G41" t="n">
-        <v>171.2745894237985</v>
+        <v>171.2745894237984</v>
       </c>
       <c r="H41" t="n">
-        <v>90.44712491406727</v>
+        <v>90.44712491406725</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>8.307410325529073</v>
+        <v>8.307410325529045</v>
       </c>
       <c r="V41" t="n">
-        <v>85.39850503054896</v>
+        <v>85.39850503054893</v>
       </c>
       <c r="W41" t="n">
         <v>107.3954005085842</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>6.854630258029658</v>
+        <v>6.85463025802963</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>42.90665474686543</v>
+        <v>42.9066547468654</v>
       </c>
       <c r="V43" t="n">
-        <v>9.801634574968773</v>
+        <v>9.801634574968745</v>
       </c>
       <c r="W43" t="n">
-        <v>42.95786039544515</v>
+        <v>42.95786039544512</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>140.5816934994247</v>
+        <v>140.5816934994246</v>
       </c>
       <c r="C44" t="n">
         <v>123.8503791869722</v>
@@ -3983,16 +3983,16 @@
         <v>113.470016262628</v>
       </c>
       <c r="E44" t="n">
-        <v>139.9833192633171</v>
+        <v>139.983319263317</v>
       </c>
       <c r="F44" t="n">
-        <v>164.1591469885705</v>
+        <v>164.1591469885704</v>
       </c>
       <c r="G44" t="n">
-        <v>171.2745894237985</v>
+        <v>171.2745894237984</v>
       </c>
       <c r="H44" t="n">
-        <v>90.44712491406727</v>
+        <v>90.44712491406725</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>8.307410325529073</v>
+        <v>8.307410325529045</v>
       </c>
       <c r="V44" t="n">
-        <v>85.39850503054896</v>
+        <v>85.39850503054893</v>
       </c>
       <c r="W44" t="n">
         <v>107.3954005085842</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>6.854630258029658</v>
+        <v>6.85463025802963</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>42.90665474686543</v>
+        <v>42.9066547468654</v>
       </c>
       <c r="V46" t="n">
-        <v>9.801634574968773</v>
+        <v>9.801634574968745</v>
       </c>
       <c r="W46" t="n">
-        <v>42.95786039544515</v>
+        <v>42.95786039544512</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>237.6717431594456</v>
+        <v>74.55966711750006</v>
       </c>
       <c r="C11" t="n">
-        <v>237.6717431594456</v>
+        <v>74.55966711750006</v>
       </c>
       <c r="D11" t="n">
-        <v>212.735477194409</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E11" t="n">
-        <v>143.6475721559545</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F11" t="n">
-        <v>74.55966711750006</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G11" t="n">
         <v>5.471762079045593</v>
@@ -5036,34 +5036,34 @@
         <v>5.471762079045593</v>
       </c>
       <c r="I11" t="n">
-        <v>5.471762079045593</v>
+        <v>35.5670621543919</v>
       </c>
       <c r="J11" t="n">
-        <v>5.471762079045593</v>
+        <v>35.5670621543919</v>
       </c>
       <c r="K11" t="n">
-        <v>5.471762079045593</v>
+        <v>79.77951501179204</v>
       </c>
       <c r="L11" t="n">
-        <v>5.471762079045593</v>
+        <v>79.77951501179204</v>
       </c>
       <c r="M11" t="n">
-        <v>73.18481780723481</v>
+        <v>147.4925707399813</v>
       </c>
       <c r="N11" t="n">
-        <v>134.6914394875571</v>
+        <v>147.4925707399813</v>
       </c>
       <c r="O11" t="n">
-        <v>165.8971027405232</v>
+        <v>215.2056264681705</v>
       </c>
       <c r="P11" t="n">
-        <v>165.8971027405232</v>
+        <v>215.2056264681705</v>
       </c>
       <c r="Q11" t="n">
         <v>215.2056264681705</v>
       </c>
       <c r="R11" t="n">
-        <v>251.0794834348001</v>
+        <v>251.0794834348</v>
       </c>
       <c r="S11" t="n">
         <v>273.5881039522797</v>
@@ -5075,16 +5075,16 @@
         <v>237.6717431594456</v>
       </c>
       <c r="V11" t="n">
-        <v>237.6717431594456</v>
+        <v>168.5838381209911</v>
       </c>
       <c r="W11" t="n">
-        <v>237.6717431594456</v>
+        <v>99.49593308253675</v>
       </c>
       <c r="X11" t="n">
-        <v>237.6717431594456</v>
+        <v>99.49593308253675</v>
       </c>
       <c r="Y11" t="n">
-        <v>237.6717431594456</v>
+        <v>74.55966711750006</v>
       </c>
     </row>
     <row r="12">
@@ -5112,49 +5112,49 @@
         <v>5.471762079045593</v>
       </c>
       <c r="H12" t="n">
-        <v>57.17833035452099</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I12" t="n">
-        <v>57.17833035452099</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J12" t="n">
-        <v>57.17833035452099</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K12" t="n">
-        <v>57.17833035452099</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452091</v>
       </c>
       <c r="M12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452091</v>
       </c>
       <c r="N12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452091</v>
       </c>
       <c r="O12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452091</v>
       </c>
       <c r="P12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452091</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452091</v>
       </c>
       <c r="R12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452091</v>
       </c>
       <c r="S12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452091</v>
       </c>
       <c r="T12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452091</v>
       </c>
       <c r="U12" t="n">
-        <v>50.92431750291711</v>
+        <v>50.92431750291705</v>
       </c>
       <c r="V12" t="n">
-        <v>37.32966388711515</v>
+        <v>37.32966388711512</v>
       </c>
       <c r="W12" t="n">
         <v>5.471762079045593</v>
@@ -5182,64 +5182,64 @@
         <v>5.471762079045593</v>
       </c>
       <c r="E13" t="n">
-        <v>73.18481780723481</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F13" t="n">
-        <v>140.897873535424</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G13" t="n">
-        <v>191.1505238279736</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H13" t="n">
-        <v>191.1505238279736</v>
+        <v>63.47835070572658</v>
       </c>
       <c r="I13" t="n">
-        <v>191.1505238279736</v>
+        <v>63.47835070572658</v>
       </c>
       <c r="J13" t="n">
-        <v>191.1505238279736</v>
+        <v>63.47835070572658</v>
       </c>
       <c r="K13" t="n">
-        <v>191.1505238279736</v>
+        <v>63.47835070572658</v>
       </c>
       <c r="L13" t="n">
-        <v>191.1505238279736</v>
+        <v>63.47835070572658</v>
       </c>
       <c r="M13" t="n">
-        <v>191.1505238279736</v>
+        <v>63.47835070572658</v>
       </c>
       <c r="N13" t="n">
-        <v>191.1505238279736</v>
+        <v>131.1914064339158</v>
       </c>
       <c r="O13" t="n">
-        <v>191.1505238279736</v>
+        <v>131.1914064339158</v>
       </c>
       <c r="P13" t="n">
-        <v>191.1505238279736</v>
+        <v>194.5252895180217</v>
       </c>
       <c r="Q13" t="n">
-        <v>191.1505238279736</v>
+        <v>194.5252895180217</v>
       </c>
       <c r="R13" t="n">
-        <v>194.5252895180218</v>
+        <v>194.5252895180217</v>
       </c>
       <c r="S13" t="n">
-        <v>194.0958916751569</v>
+        <v>194.0958916751568</v>
       </c>
       <c r="T13" t="n">
-        <v>184.9760178297648</v>
+        <v>184.9760178297647</v>
       </c>
       <c r="U13" t="n">
-        <v>116.7019296693359</v>
+        <v>116.7019296693358</v>
       </c>
       <c r="V13" t="n">
-        <v>81.86725582395414</v>
+        <v>81.86725582395405</v>
       </c>
       <c r="W13" t="n">
-        <v>13.54144478617197</v>
+        <v>13.54144478617191</v>
       </c>
       <c r="X13" t="n">
-        <v>5.773428652537551</v>
+        <v>5.773428652537523</v>
       </c>
       <c r="Y13" t="n">
         <v>5.471762079045593</v>
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>212.735477194409</v>
+        <v>74.55966711750006</v>
       </c>
       <c r="C14" t="n">
-        <v>212.735477194409</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D14" t="n">
-        <v>212.735477194409</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E14" t="n">
-        <v>212.735477194409</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F14" t="n">
-        <v>143.6475721559545</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G14" t="n">
-        <v>74.55966711750006</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H14" t="n">
         <v>5.471762079045593</v>
       </c>
       <c r="I14" t="n">
-        <v>35.56706215439188</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J14" t="n">
-        <v>35.56706215439188</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K14" t="n">
-        <v>35.56706215439188</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L14" t="n">
-        <v>93.85293350575499</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M14" t="n">
-        <v>93.85293350575499</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="N14" t="n">
-        <v>161.5659892339442</v>
+        <v>41.69911754908757</v>
       </c>
       <c r="O14" t="n">
-        <v>161.5659892339442</v>
+        <v>109.4121732772768</v>
       </c>
       <c r="P14" t="n">
-        <v>201.7709597071527</v>
+        <v>165.8971027405233</v>
       </c>
       <c r="Q14" t="n">
-        <v>251.0794834348001</v>
+        <v>215.2056264681707</v>
       </c>
       <c r="R14" t="n">
         <v>251.0794834348001</v>
@@ -5309,19 +5309,19 @@
         <v>273.5881039522797</v>
       </c>
       <c r="U14" t="n">
-        <v>240.2627475305743</v>
+        <v>240.2627475305742</v>
       </c>
       <c r="V14" t="n">
-        <v>240.2627475305743</v>
+        <v>212.735477194409</v>
       </c>
       <c r="W14" t="n">
-        <v>240.2627475305743</v>
+        <v>143.6475721559545</v>
       </c>
       <c r="X14" t="n">
-        <v>240.2627475305743</v>
+        <v>74.55966711750006</v>
       </c>
       <c r="Y14" t="n">
-        <v>212.735477194409</v>
+        <v>74.55966711750006</v>
       </c>
     </row>
     <row r="15">
@@ -5337,61 +5337,61 @@
         <v>5.471762079045593</v>
       </c>
       <c r="D15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452118</v>
       </c>
       <c r="E15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452118</v>
       </c>
       <c r="F15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452118</v>
       </c>
       <c r="G15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452118</v>
       </c>
       <c r="H15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452118</v>
       </c>
       <c r="I15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452118</v>
       </c>
       <c r="J15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452118</v>
       </c>
       <c r="K15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452118</v>
       </c>
       <c r="L15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452118</v>
       </c>
       <c r="M15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452118</v>
       </c>
       <c r="N15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452118</v>
       </c>
       <c r="O15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452118</v>
       </c>
       <c r="P15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452118</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452118</v>
       </c>
       <c r="R15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452118</v>
       </c>
       <c r="S15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452118</v>
       </c>
       <c r="T15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452118</v>
       </c>
       <c r="U15" t="n">
-        <v>50.92431750291711</v>
+        <v>50.92431750291723</v>
       </c>
       <c r="V15" t="n">
-        <v>37.32966388711515</v>
+        <v>37.3296638871152</v>
       </c>
       <c r="W15" t="n">
         <v>5.471762079045593</v>
@@ -5419,64 +5419,64 @@
         <v>5.471762079045593</v>
       </c>
       <c r="E16" t="n">
-        <v>5.471762079045593</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="F16" t="n">
         <v>73.18481780723481</v>
       </c>
       <c r="G16" t="n">
-        <v>73.18481780723481</v>
+        <v>83.01572422193655</v>
       </c>
       <c r="H16" t="n">
-        <v>73.18481780723481</v>
+        <v>141.0223128486174</v>
       </c>
       <c r="I16" t="n">
-        <v>73.18481780723481</v>
+        <v>141.0223128486174</v>
       </c>
       <c r="J16" t="n">
-        <v>126.8122337898326</v>
+        <v>141.0223128486174</v>
       </c>
       <c r="K16" t="n">
-        <v>194.5252895180218</v>
+        <v>141.0223128486174</v>
       </c>
       <c r="L16" t="n">
-        <v>194.5252895180218</v>
+        <v>141.0223128486174</v>
       </c>
       <c r="M16" t="n">
-        <v>194.5252895180218</v>
+        <v>141.0223128486174</v>
       </c>
       <c r="N16" t="n">
-        <v>194.5252895180218</v>
+        <v>141.0223128486174</v>
       </c>
       <c r="O16" t="n">
-        <v>194.5252895180218</v>
+        <v>141.0223128486174</v>
       </c>
       <c r="P16" t="n">
-        <v>194.5252895180218</v>
+        <v>141.0223128486174</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.5252895180218</v>
+        <v>141.0223128486174</v>
       </c>
       <c r="R16" t="n">
-        <v>194.5252895180218</v>
+        <v>194.5252895180222</v>
       </c>
       <c r="S16" t="n">
-        <v>194.0958916751569</v>
+        <v>194.0958916751572</v>
       </c>
       <c r="T16" t="n">
-        <v>184.9760178297648</v>
+        <v>184.9760178297651</v>
       </c>
       <c r="U16" t="n">
-        <v>116.7019296693359</v>
+        <v>116.7019296693362</v>
       </c>
       <c r="V16" t="n">
-        <v>81.86725582395414</v>
+        <v>81.86725582395431</v>
       </c>
       <c r="W16" t="n">
-        <v>13.54144478617197</v>
+        <v>13.54144478617208</v>
       </c>
       <c r="X16" t="n">
-        <v>5.773428652537551</v>
+        <v>5.773428652537609</v>
       </c>
       <c r="Y16" t="n">
         <v>5.471762079045593</v>
@@ -5507,40 +5507,40 @@
         <v>5.471762079045593</v>
       </c>
       <c r="H17" t="n">
-        <v>22.25055491761735</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I17" t="n">
-        <v>22.25055491761735</v>
+        <v>70.44893676771203</v>
       </c>
       <c r="J17" t="n">
-        <v>22.25055491761735</v>
+        <v>70.44893676771203</v>
       </c>
       <c r="K17" t="n">
-        <v>22.25055491761735</v>
+        <v>70.44893676771203</v>
       </c>
       <c r="L17" t="n">
         <v>70.44893676771203</v>
       </c>
       <c r="M17" t="n">
-        <v>70.44893676771203</v>
+        <v>138.1619924959012</v>
       </c>
       <c r="N17" t="n">
-        <v>70.44893676771203</v>
+        <v>138.1619924959012</v>
       </c>
       <c r="O17" t="n">
-        <v>70.44893676771203</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="P17" t="n">
-        <v>70.44893676771203</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="Q17" t="n">
-        <v>70.44893676771203</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="R17" t="n">
-        <v>70.44893676771203</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="S17" t="n">
-        <v>138.1619924959012</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="T17" t="n">
         <v>205.8750482240904</v>
@@ -5729,7 +5729,7 @@
         <v>183.0075687278994</v>
       </c>
       <c r="C20" t="n">
-        <v>166.3863781436691</v>
+        <v>166.386378143669</v>
       </c>
       <c r="D20" t="n">
         <v>160.2504026345339</v>
@@ -5738,49 +5738,49 @@
         <v>127.3333129832886</v>
       </c>
       <c r="F20" t="n">
-        <v>69.99619532673682</v>
+        <v>69.99619532673677</v>
       </c>
       <c r="G20" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H20" t="n">
-        <v>22.25055491761735</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I20" t="n">
-        <v>89.96361064580658</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="J20" t="n">
-        <v>89.96361064580658</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="K20" t="n">
-        <v>89.96361064580658</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="L20" t="n">
-        <v>89.96361064580658</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="M20" t="n">
-        <v>89.96361064580658</v>
+        <v>140.897873535424</v>
       </c>
       <c r="N20" t="n">
-        <v>89.96361064580658</v>
+        <v>140.897873535424</v>
       </c>
       <c r="O20" t="n">
-        <v>89.96361064580658</v>
+        <v>140.897873535424</v>
       </c>
       <c r="P20" t="n">
-        <v>89.96361064580658</v>
+        <v>140.897873535424</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.96361064580658</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="R20" t="n">
-        <v>89.96361064580658</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="S20" t="n">
-        <v>157.6766663739958</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="T20" t="n">
-        <v>184.0981217008356</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="U20" t="n">
         <v>251.8111774290248</v>
@@ -5792,10 +5792,10 @@
         <v>273.5881039522797</v>
       </c>
       <c r="X20" t="n">
-        <v>253.0512533152951</v>
+        <v>253.051253315295</v>
       </c>
       <c r="Y20" t="n">
-        <v>216.5290767994555</v>
+        <v>216.5290767994554</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="N21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="O21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="P21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="R21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="S21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="T21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="U21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="V21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="W21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="N22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="O22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="P22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="R22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="S22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="T22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="U22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="V22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="W22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="23">
@@ -5981,37 +5981,37 @@
         <v>5.471762079045594</v>
       </c>
       <c r="H23" t="n">
-        <v>22.25055491761735</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I23" t="n">
-        <v>22.25055491761735</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="J23" t="n">
-        <v>22.25055491761735</v>
+        <v>70.44893676771201</v>
       </c>
       <c r="K23" t="n">
-        <v>22.25055491761735</v>
+        <v>70.44893676771201</v>
       </c>
       <c r="L23" t="n">
-        <v>22.25055491761735</v>
+        <v>70.44893676771201</v>
       </c>
       <c r="M23" t="n">
-        <v>22.25055491761735</v>
+        <v>138.1619924959012</v>
       </c>
       <c r="N23" t="n">
-        <v>22.25055491761735</v>
+        <v>138.1619924959012</v>
       </c>
       <c r="O23" t="n">
-        <v>22.25055491761735</v>
+        <v>138.1619924959012</v>
       </c>
       <c r="P23" t="n">
-        <v>89.96361064580658</v>
+        <v>205.8750482240905</v>
       </c>
       <c r="Q23" t="n">
-        <v>157.6766663739958</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="R23" t="n">
-        <v>225.3897221021851</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="S23" t="n">
         <v>273.5881039522797</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>980.0203689923728</v>
+        <v>980.0203689923733</v>
       </c>
       <c r="C26" t="n">
-        <v>832.5759473847833</v>
+        <v>832.5759473847834</v>
       </c>
       <c r="D26" t="n">
         <v>695.6167408522886</v>
@@ -6221,34 +6221,34 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I26" t="n">
-        <v>67.29938996034309</v>
+        <v>67.29938996034306</v>
       </c>
       <c r="J26" t="n">
-        <v>148.7795367731729</v>
+        <v>322.88141175434</v>
       </c>
       <c r="K26" t="n">
-        <v>148.7795367731729</v>
+        <v>385.3421263187571</v>
       </c>
       <c r="L26" t="n">
-        <v>209.6048515086792</v>
+        <v>385.3421263187571</v>
       </c>
       <c r="M26" t="n">
-        <v>209.6048515086792</v>
+        <v>814.3171267668199</v>
       </c>
       <c r="N26" t="n">
-        <v>638.579851956742</v>
+        <v>1057.178113195543</v>
       </c>
       <c r="O26" t="n">
-        <v>941.3135306130828</v>
+        <v>1128.18514492134</v>
       </c>
       <c r="P26" t="n">
-        <v>1331.661853393831</v>
+        <v>1356.709917295454</v>
       </c>
       <c r="Q26" t="n">
-        <v>1602.10933488906</v>
+        <v>1627.157398790682</v>
       </c>
       <c r="R26" t="n">
-        <v>1708.184261141055</v>
+        <v>1733.232325042678</v>
       </c>
       <c r="S26" t="n">
         <v>1733.232325042678</v>
@@ -6260,16 +6260,16 @@
         <v>1702.497972992101</v>
       </c>
       <c r="V26" t="n">
-        <v>1593.893828310191</v>
+        <v>1593.893828310192</v>
       </c>
       <c r="W26" t="n">
         <v>1463.070597286832</v>
       </c>
       <c r="X26" t="n">
-        <v>1311.710515626487</v>
+        <v>1311.710515626488</v>
       </c>
       <c r="Y26" t="n">
-        <v>1144.365108087288</v>
+        <v>1144.365108087289</v>
       </c>
     </row>
     <row r="27">
@@ -6294,52 +6294,52 @@
         <v>34.66464650085356</v>
       </c>
       <c r="G27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="L27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="M27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="N27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="O27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="P27" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="R27" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="S27" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="T27" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="U27" t="n">
-        <v>74.93519318246766</v>
+        <v>74.93519318246771</v>
       </c>
       <c r="V27" t="n">
-        <v>63.9315439377944</v>
+        <v>63.93154393779443</v>
       </c>
       <c r="W27" t="n">
         <v>34.66464650085356</v>
@@ -6376,52 +6376,52 @@
         <v>34.66464650085356</v>
       </c>
       <c r="H28" t="n">
-        <v>46.70073256118092</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I28" t="n">
-        <v>46.70073256118092</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J28" t="n">
-        <v>46.70073256118092</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K28" t="n">
-        <v>210.0320876678294</v>
+        <v>82.08520593897065</v>
       </c>
       <c r="L28" t="n">
-        <v>210.0320876678294</v>
+        <v>82.08520593897065</v>
       </c>
       <c r="M28" t="n">
-        <v>210.0320876678294</v>
+        <v>82.08520593897065</v>
       </c>
       <c r="N28" t="n">
-        <v>210.0320876678294</v>
+        <v>207.9134971094782</v>
       </c>
       <c r="O28" t="n">
-        <v>210.0320876678294</v>
+        <v>207.9134971094782</v>
       </c>
       <c r="P28" t="n">
-        <v>210.0320876678294</v>
+        <v>207.9134971094782</v>
       </c>
       <c r="Q28" t="n">
-        <v>210.0320876678294</v>
+        <v>207.9134971094782</v>
       </c>
       <c r="R28" t="n">
-        <v>210.0320876678294</v>
+        <v>207.9134971094782</v>
       </c>
       <c r="S28" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678296</v>
       </c>
       <c r="T28" t="n">
-        <v>203.503218193566</v>
+        <v>203.5032181935661</v>
       </c>
       <c r="U28" t="n">
-        <v>137.8201344042658</v>
+        <v>137.8201344042659</v>
       </c>
       <c r="V28" t="n">
-        <v>105.5764649300127</v>
+        <v>105.5764649300128</v>
       </c>
       <c r="W28" t="n">
-        <v>39.84165826335926</v>
+        <v>39.84165826335929</v>
       </c>
       <c r="X28" t="n">
         <v>34.66464650085356</v>
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>980.0203689923732</v>
+        <v>980.0203689923728</v>
       </c>
       <c r="C29" t="n">
         <v>832.5759473847833</v>
@@ -6446,7 +6446,7 @@
         <v>695.6167408522886</v>
       </c>
       <c r="E29" t="n">
-        <v>531.8764201776835</v>
+        <v>531.8764201776836</v>
       </c>
       <c r="F29" t="n">
         <v>343.7160714977722</v>
@@ -6458,28 +6458,28 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I29" t="n">
-        <v>67.29938996034309</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J29" t="n">
-        <v>148.7795367731729</v>
+        <v>290.2466682948505</v>
       </c>
       <c r="K29" t="n">
-        <v>326.175401016307</v>
+        <v>352.7073828592676</v>
       </c>
       <c r="L29" t="n">
-        <v>387.0007157518133</v>
+        <v>624.7517169913633</v>
       </c>
       <c r="M29" t="n">
-        <v>387.0007157518133</v>
+        <v>1053.726717439426</v>
       </c>
       <c r="N29" t="n">
-        <v>815.9757161998762</v>
+        <v>1340.299106447664</v>
       </c>
       <c r="O29" t="n">
-        <v>1227.574670897743</v>
+        <v>1340.299106447664</v>
       </c>
       <c r="P29" t="n">
-        <v>1617.922993678492</v>
+        <v>1399.323479295054</v>
       </c>
       <c r="Q29" t="n">
         <v>1669.770960790283</v>
@@ -6497,16 +6497,16 @@
         <v>1702.497972992101</v>
       </c>
       <c r="V29" t="n">
-        <v>1593.893828310192</v>
+        <v>1593.893828310191</v>
       </c>
       <c r="W29" t="n">
         <v>1463.070597286832</v>
       </c>
       <c r="X29" t="n">
-        <v>1311.710515626488</v>
+        <v>1311.710515626487</v>
       </c>
       <c r="Y29" t="n">
-        <v>1144.365108087289</v>
+        <v>1144.365108087288</v>
       </c>
     </row>
     <row r="30">
@@ -6519,25 +6519,25 @@
         <v>34.66464650085356</v>
       </c>
       <c r="C30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="D30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="E30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J30" t="n">
         <v>78.59820166294284</v>
@@ -6619,16 +6619,16 @@
         <v>34.66464650085356</v>
       </c>
       <c r="J31" t="n">
-        <v>179.5050037621559</v>
+        <v>84.20379649732176</v>
       </c>
       <c r="K31" t="n">
-        <v>179.5050037621559</v>
+        <v>84.20379649732176</v>
       </c>
       <c r="L31" t="n">
-        <v>179.5050037621559</v>
+        <v>84.20379649732176</v>
       </c>
       <c r="M31" t="n">
-        <v>179.5050037621559</v>
+        <v>84.20379649732176</v>
       </c>
       <c r="N31" t="n">
         <v>210.0320876678294</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>980.0203689923725</v>
+        <v>980.0203689923723</v>
       </c>
       <c r="C32" t="n">
-        <v>832.5759473847825</v>
+        <v>832.5759473847824</v>
       </c>
       <c r="D32" t="n">
-        <v>695.6167408522878</v>
+        <v>695.6167408522876</v>
       </c>
       <c r="E32" t="n">
-        <v>531.8764201776828</v>
+        <v>531.8764201776827</v>
       </c>
       <c r="F32" t="n">
-        <v>343.7160714977715</v>
+        <v>343.7160714977713</v>
       </c>
       <c r="G32" t="n">
         <v>148.3684072267213</v>
@@ -6695,31 +6695,31 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I32" t="n">
-        <v>67.29938996034306</v>
+        <v>67.29938996034309</v>
       </c>
       <c r="J32" t="n">
-        <v>322.88141175434</v>
+        <v>148.7795367731729</v>
       </c>
       <c r="K32" t="n">
-        <v>719.0822431020283</v>
+        <v>148.7795367731729</v>
       </c>
       <c r="L32" t="n">
-        <v>1148.057243550091</v>
+        <v>577.7545372212356</v>
       </c>
       <c r="M32" t="n">
-        <v>1221.957109481868</v>
+        <v>1006.729537669298</v>
       </c>
       <c r="N32" t="n">
-        <v>1298.010722552413</v>
+        <v>1082.783150739843</v>
       </c>
       <c r="O32" t="n">
-        <v>1298.010722552413</v>
+        <v>1446.379638002298</v>
       </c>
       <c r="P32" t="n">
-        <v>1331.661853393831</v>
+        <v>1617.922993678492</v>
       </c>
       <c r="Q32" t="n">
-        <v>1602.10933488906</v>
+        <v>1669.770960790283</v>
       </c>
       <c r="R32" t="n">
         <v>1708.184261141055</v>
@@ -6759,61 +6759,61 @@
         <v>34.66464650085356</v>
       </c>
       <c r="D33" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="E33" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="F33" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="G33" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="H33" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="I33" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="J33" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="K33" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="L33" t="n">
-        <v>78.59820166294293</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="M33" t="n">
-        <v>78.59820166294293</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="N33" t="n">
-        <v>78.59820166294293</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="O33" t="n">
-        <v>78.59820166294293</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="P33" t="n">
-        <v>78.59820166294293</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.59820166294293</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="R33" t="n">
-        <v>78.59820166294293</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="S33" t="n">
-        <v>78.59820166294293</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="T33" t="n">
-        <v>78.59820166294293</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="U33" t="n">
-        <v>74.93519318246771</v>
+        <v>74.93519318246766</v>
       </c>
       <c r="V33" t="n">
-        <v>63.93154393779443</v>
+        <v>63.9315439377944</v>
       </c>
       <c r="W33" t="n">
         <v>34.66464650085356</v>
@@ -6835,67 +6835,67 @@
         <v>34.66464650085356</v>
       </c>
       <c r="C34" t="n">
-        <v>34.66464650085356</v>
+        <v>87.80642620351756</v>
       </c>
       <c r="D34" t="n">
-        <v>34.66464650085356</v>
+        <v>87.80642620351756</v>
       </c>
       <c r="E34" t="n">
-        <v>34.66464650085356</v>
+        <v>92.77412570834876</v>
       </c>
       <c r="F34" t="n">
-        <v>34.66464650085356</v>
+        <v>92.77412570834876</v>
       </c>
       <c r="G34" t="n">
-        <v>34.66464650085356</v>
+        <v>92.77412570834876</v>
       </c>
       <c r="H34" t="n">
-        <v>34.66464650085356</v>
+        <v>92.77412570834876</v>
       </c>
       <c r="I34" t="n">
-        <v>92.77412570834896</v>
+        <v>92.77412570834876</v>
       </c>
       <c r="J34" t="n">
-        <v>92.77412570834896</v>
+        <v>92.77412570834876</v>
       </c>
       <c r="K34" t="n">
-        <v>210.0320876678296</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="L34" t="n">
-        <v>210.0320876678296</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="M34" t="n">
-        <v>210.0320876678296</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="N34" t="n">
-        <v>210.0320876678296</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="O34" t="n">
-        <v>210.0320876678296</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="P34" t="n">
-        <v>210.0320876678296</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="Q34" t="n">
-        <v>210.0320876678296</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="R34" t="n">
-        <v>210.0320876678296</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="S34" t="n">
-        <v>210.0320876678296</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="T34" t="n">
-        <v>203.5032181935661</v>
+        <v>203.503218193566</v>
       </c>
       <c r="U34" t="n">
-        <v>137.8201344042659</v>
+        <v>137.8201344042658</v>
       </c>
       <c r="V34" t="n">
-        <v>105.5764649300128</v>
+        <v>105.5764649300127</v>
       </c>
       <c r="W34" t="n">
-        <v>39.84165826335929</v>
+        <v>39.84165826335926</v>
       </c>
       <c r="X34" t="n">
         <v>34.66464650085356</v>
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>840.4904359767106</v>
+        <v>840.4904359767097</v>
       </c>
       <c r="C35" t="n">
-        <v>715.3890428585569</v>
+        <v>715.3890428585563</v>
       </c>
       <c r="D35" t="n">
-        <v>600.7728648154982</v>
+        <v>600.7728648154978</v>
       </c>
       <c r="E35" t="n">
-        <v>459.3755726303295</v>
+        <v>459.375572630329</v>
       </c>
       <c r="F35" t="n">
-        <v>293.5582524398542</v>
+        <v>293.5582524398537</v>
       </c>
       <c r="G35" t="n">
-        <v>120.5536166582396</v>
+        <v>120.5536166582395</v>
       </c>
       <c r="H35" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I35" t="n">
-        <v>83.72603010379385</v>
+        <v>83.72603010379387</v>
       </c>
       <c r="J35" t="n">
-        <v>187.10457913912</v>
+        <v>361.2064541202872</v>
       </c>
       <c r="K35" t="n">
-        <v>548.3665238589936</v>
+        <v>445.5655709072007</v>
       </c>
       <c r="L35" t="n">
-        <v>663.2307155495039</v>
+        <v>445.5655709072007</v>
       </c>
       <c r="M35" t="n">
-        <v>984.9610565250053</v>
+        <v>779.6226913102306</v>
       </c>
       <c r="N35" t="n">
-        <v>1082.913071818046</v>
+        <v>877.5747066032716</v>
       </c>
       <c r="O35" t="n">
-        <v>1175.81850576634</v>
+        <v>970.4801405515658</v>
       </c>
       <c r="P35" t="n">
-        <v>1256.741280836227</v>
+        <v>970.4801405515658</v>
       </c>
       <c r="Q35" t="n">
-        <v>1330.487650170514</v>
+        <v>1262.826024269291</v>
       </c>
       <c r="R35" t="n">
-        <v>1390.799352743783</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="S35" t="n">
         <v>1437.745818867902</v>
@@ -6968,19 +6968,19 @@
         <v>1459.644221090398</v>
       </c>
       <c r="U35" t="n">
-        <v>1451.252897529258</v>
+        <v>1451.252897529257</v>
       </c>
       <c r="V35" t="n">
-        <v>1364.991781336784</v>
+        <v>1364.991781336783</v>
       </c>
       <c r="W35" t="n">
-        <v>1256.511578802861</v>
+        <v>1256.51157880286</v>
       </c>
       <c r="X35" t="n">
-        <v>1127.494525631953</v>
+        <v>1127.494525631952</v>
       </c>
       <c r="Y35" t="n">
-        <v>982.49214658219</v>
+        <v>982.492146582189</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="N36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="O36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="P36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="R36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="S36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="T36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="U36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="V36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="W36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J37" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K37" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L37" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M37" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="N37" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="O37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="P37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="R37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="S37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="T37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="U37" t="n">
-        <v>82.48530358384224</v>
+        <v>82.48530358384218</v>
       </c>
       <c r="V37" t="n">
-        <v>72.58466259902529</v>
+        <v>72.58466259902526</v>
       </c>
       <c r="W37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="38">
@@ -7148,61 +7148,61 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>840.4904359767104</v>
+        <v>840.49043597671</v>
       </c>
       <c r="C38" t="n">
-        <v>715.3890428585566</v>
+        <v>715.3890428585562</v>
       </c>
       <c r="D38" t="n">
-        <v>600.772864815498</v>
+        <v>600.7728648154975</v>
       </c>
       <c r="E38" t="n">
-        <v>459.3755726303292</v>
+        <v>459.3755726303288</v>
       </c>
       <c r="F38" t="n">
-        <v>293.558252439854</v>
+        <v>293.5582524398535</v>
       </c>
       <c r="G38" t="n">
-        <v>120.5536166582396</v>
+        <v>120.5536166582395</v>
       </c>
       <c r="H38" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I38" t="n">
-        <v>83.72603010379386</v>
+        <v>83.72603010379387</v>
       </c>
       <c r="J38" t="n">
-        <v>187.10457913912</v>
+        <v>361.2064541202872</v>
       </c>
       <c r="K38" t="n">
-        <v>353.8085248118035</v>
+        <v>442.5992871740643</v>
       </c>
       <c r="L38" t="n">
-        <v>625.8528589438993</v>
+        <v>803.8612318939379</v>
       </c>
       <c r="M38" t="n">
-        <v>721.6511270981729</v>
+        <v>1165.123176613811</v>
       </c>
       <c r="N38" t="n">
-        <v>1082.913071818047</v>
+        <v>1165.123176613811</v>
       </c>
       <c r="O38" t="n">
-        <v>1175.818505766341</v>
+        <v>1258.028610562106</v>
       </c>
       <c r="P38" t="n">
-        <v>1256.741280836227</v>
+        <v>1338.951385631992</v>
       </c>
       <c r="Q38" t="n">
-        <v>1330.487650170514</v>
+        <v>1412.697754966279</v>
       </c>
       <c r="R38" t="n">
-        <v>1390.799352743783</v>
+        <v>1412.697754966279</v>
       </c>
       <c r="S38" t="n">
-        <v>1437.745818867902</v>
+        <v>1459.644221090398</v>
       </c>
       <c r="T38" t="n">
-        <v>1459.644221090399</v>
+        <v>1459.644221090398</v>
       </c>
       <c r="U38" t="n">
         <v>1451.252897529258</v>
@@ -7211,13 +7211,13 @@
         <v>1364.991781336784</v>
       </c>
       <c r="W38" t="n">
-        <v>1256.511578802861</v>
+        <v>1256.51157880286</v>
       </c>
       <c r="X38" t="n">
-        <v>1127.494525631953</v>
+        <v>1127.494525631952</v>
       </c>
       <c r="Y38" t="n">
-        <v>982.4921465821898</v>
+        <v>982.4921465821894</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="N39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="O39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="P39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="Q39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="R39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="S39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="T39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="U39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="V39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="W39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>70.15947961383263</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C40" t="n">
-        <v>70.15947961383263</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D40" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E40" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F40" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G40" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H40" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I40" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J40" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K40" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="L40" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="M40" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="N40" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="O40" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="P40" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="R40" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="S40" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="T40" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="U40" t="n">
-        <v>82.48530358384224</v>
+        <v>82.48530358384218</v>
       </c>
       <c r="V40" t="n">
-        <v>72.58466259902529</v>
+        <v>72.58466259902526</v>
       </c>
       <c r="W40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X40" t="n">
-        <v>46.01729741587249</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y40" t="n">
-        <v>70.15947961383263</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="41">
@@ -7388,58 +7388,58 @@
         <v>840.4904359767104</v>
       </c>
       <c r="C41" t="n">
-        <v>715.3890428585566</v>
+        <v>715.3890428585568</v>
       </c>
       <c r="D41" t="n">
         <v>600.7728648154982</v>
       </c>
       <c r="E41" t="n">
-        <v>459.3755726303295</v>
+        <v>459.3755726303293</v>
       </c>
       <c r="F41" t="n">
-        <v>293.5582524398544</v>
+        <v>293.558252439854</v>
       </c>
       <c r="G41" t="n">
-        <v>120.5536166582396</v>
+        <v>120.5536166582395</v>
       </c>
       <c r="H41" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I41" t="n">
-        <v>83.72603010379386</v>
+        <v>83.72603010379387</v>
       </c>
       <c r="J41" t="n">
-        <v>187.10457913912</v>
+        <v>361.2064541202872</v>
       </c>
       <c r="K41" t="n">
-        <v>364.7236338718575</v>
+        <v>512.2416521210207</v>
       </c>
       <c r="L41" t="n">
-        <v>447.4473508298602</v>
+        <v>512.2416521210207</v>
       </c>
       <c r="M41" t="n">
-        <v>543.2456189841338</v>
+        <v>873.5035968408943</v>
       </c>
       <c r="N41" t="n">
-        <v>641.1976342771748</v>
+        <v>971.4556121339352</v>
       </c>
       <c r="O41" t="n">
-        <v>955.7910386896223</v>
+        <v>1064.361046082229</v>
       </c>
       <c r="P41" t="n">
-        <v>1317.052983409496</v>
+        <v>1145.283821152116</v>
       </c>
       <c r="Q41" t="n">
-        <v>1390.799352743783</v>
+        <v>1437.62970486984</v>
       </c>
       <c r="R41" t="n">
-        <v>1390.799352743783</v>
+        <v>1437.62970486984</v>
       </c>
       <c r="S41" t="n">
         <v>1437.745818867902</v>
       </c>
       <c r="T41" t="n">
-        <v>1459.644221090399</v>
+        <v>1459.644221090398</v>
       </c>
       <c r="U41" t="n">
         <v>1451.252897529258</v>
@@ -7454,7 +7454,7 @@
         <v>1127.494525631953</v>
       </c>
       <c r="Y41" t="n">
-        <v>982.4921465821899</v>
+        <v>982.4921465821898</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H42" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="J42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="K42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="L42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="M42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="N42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="O42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="P42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="R42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="S42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="T42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="U42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="V42" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="W42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="N43" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="O43" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="P43" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="R43" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="S43" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="T43" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="U43" t="n">
-        <v>82.48530358384224</v>
+        <v>82.48530358384218</v>
       </c>
       <c r="V43" t="n">
-        <v>72.58466259902529</v>
+        <v>72.58466259902526</v>
       </c>
       <c r="W43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>840.490435976711</v>
+        <v>840.4904359767102</v>
       </c>
       <c r="C44" t="n">
-        <v>715.3890428585571</v>
+        <v>715.3890428585564</v>
       </c>
       <c r="D44" t="n">
-        <v>600.7728648154985</v>
+        <v>600.772864815498</v>
       </c>
       <c r="E44" t="n">
-        <v>459.3755726303294</v>
+        <v>459.3755726303292</v>
       </c>
       <c r="F44" t="n">
-        <v>293.5582524398542</v>
+        <v>293.558252439854</v>
       </c>
       <c r="G44" t="n">
-        <v>120.5536166582396</v>
+        <v>120.5536166582395</v>
       </c>
       <c r="H44" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I44" t="n">
-        <v>83.72603010379386</v>
+        <v>83.72603010379387</v>
       </c>
       <c r="J44" t="n">
-        <v>187.10457913912</v>
+        <v>361.2064541202872</v>
       </c>
       <c r="K44" t="n">
-        <v>244.4270280955505</v>
+        <v>722.4683988401607</v>
       </c>
       <c r="L44" t="n">
-        <v>327.1507450535532</v>
+        <v>805.1921157981634</v>
       </c>
       <c r="M44" t="n">
-        <v>422.9490132078267</v>
+        <v>900.990383952437</v>
       </c>
       <c r="N44" t="n">
-        <v>730.4900525483959</v>
+        <v>900.990383952437</v>
       </c>
       <c r="O44" t="n">
-        <v>957.2189913829027</v>
+        <v>1226.807370072535</v>
       </c>
       <c r="P44" t="n">
-        <v>1038.141766452789</v>
+        <v>1262.826024269291</v>
       </c>
       <c r="Q44" t="n">
-        <v>1330.487650170514</v>
+        <v>1262.826024269291</v>
       </c>
       <c r="R44" t="n">
-        <v>1390.799352743783</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="S44" t="n">
         <v>1437.745818867902</v>
       </c>
       <c r="T44" t="n">
-        <v>1459.644221090399</v>
+        <v>1459.644221090398</v>
       </c>
       <c r="U44" t="n">
         <v>1451.252897529258</v>
       </c>
       <c r="V44" t="n">
-        <v>1364.991781336785</v>
+        <v>1364.991781336784</v>
       </c>
       <c r="W44" t="n">
-        <v>1256.511578802862</v>
+        <v>1256.511578802861</v>
       </c>
       <c r="X44" t="n">
         <v>1127.494525631953</v>
       </c>
       <c r="Y44" t="n">
-        <v>982.4921465821905</v>
+        <v>982.4921465821897</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="N45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="O45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="P45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Q45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="R45" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="S45" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="T45" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="U45" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="V45" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="W45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.88453660766187</v>
+        <v>91.6133991730817</v>
       </c>
       <c r="C46" t="n">
-        <v>47.88453660766187</v>
+        <v>91.6133991730817</v>
       </c>
       <c r="D46" t="n">
-        <v>47.88453660766187</v>
+        <v>91.6133991730817</v>
       </c>
       <c r="E46" t="n">
-        <v>47.88453660766187</v>
+        <v>91.6133991730817</v>
       </c>
       <c r="F46" t="n">
-        <v>47.88453660766187</v>
+        <v>91.6133991730817</v>
       </c>
       <c r="G46" t="n">
-        <v>47.88453660766187</v>
+        <v>91.6133991730817</v>
       </c>
       <c r="H46" t="n">
-        <v>47.88453660766187</v>
+        <v>91.6133991730817</v>
       </c>
       <c r="I46" t="n">
-        <v>47.88453660766187</v>
+        <v>91.6133991730817</v>
       </c>
       <c r="J46" t="n">
-        <v>47.88453660766187</v>
+        <v>91.6133991730817</v>
       </c>
       <c r="K46" t="n">
-        <v>47.88453660766187</v>
+        <v>91.6133991730817</v>
       </c>
       <c r="L46" t="n">
-        <v>47.88453660766187</v>
+        <v>91.6133991730817</v>
       </c>
       <c r="M46" t="n">
-        <v>47.88453660766187</v>
+        <v>91.6133991730817</v>
       </c>
       <c r="N46" t="n">
-        <v>47.88453660766187</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="O46" t="n">
-        <v>47.88453660766187</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="P46" t="n">
-        <v>47.88453660766187</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.88453660766187</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="R46" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="S46" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="T46" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="U46" t="n">
-        <v>82.48530358384224</v>
+        <v>82.48530358384218</v>
       </c>
       <c r="V46" t="n">
-        <v>72.58466259902529</v>
+        <v>72.58466259902526</v>
       </c>
       <c r="W46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X46" t="n">
-        <v>46.01729741587249</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.88453660766187</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
   </sheetData>
@@ -8699,16 +8699,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>144.1932869030401</v>
       </c>
       <c r="O11" t="n">
-        <v>180.8117157896188</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>95.03739323033761</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>47.34253660377365</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8863,7 +8863,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>138.7119396886106</v>
+        <v>138.7119396886107</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>100.5187404447701</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>100.5187404447671</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9872,22 +9872,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K26" t="n">
-        <v>157.92348741428</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>159.5754064333818</v>
       </c>
       <c r="M26" t="n">
-        <v>146.3687890634112</v>
+        <v>358.6617520366522</v>
       </c>
       <c r="N26" t="n">
-        <v>356.486249876281</v>
+        <v>168.4922963213921</v>
       </c>
       <c r="O26" t="n">
-        <v>234.0673201318615</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>334.6706564983419</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10033,13 +10033,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>46.5387809567352</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>104.1302923698531</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -10051,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1112290740114</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M29" t="n">
-        <v>79.03855801082587</v>
+        <v>358.6617520366522</v>
       </c>
       <c r="N29" t="n">
-        <v>356.486249876281</v>
+        <v>212.6452282198925</v>
       </c>
       <c r="O29" t="n">
-        <v>344.0322454263327</v>
+        <v>96.71296281316857</v>
       </c>
       <c r="P29" t="n">
-        <v>334.6706564983419</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10267,28 +10267,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>104.1302923698531</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N31" t="n">
-        <v>124.7512725653739</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>106.7517885160091</v>
       </c>
       <c r="P31" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>175.8604797789567</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1112290740114</v>
+        <v>72.0854865898348</v>
       </c>
       <c r="L32" t="n">
         <v>371.8683694066227</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>358.6617520366522</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>149.2908438169258</v>
+        <v>295.5449045824817</v>
       </c>
       <c r="P32" t="n">
-        <v>195.3855809076593</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q32" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>101.1486090703222</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>85.11220969290984</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10504,28 +10504,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M34" t="n">
-        <v>48.44059209328991</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>93.91583427681485</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>110.1177504068044</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K35" t="n">
-        <v>279.6998261949092</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>32.46512599243192</v>
+        <v>63.43312945450876</v>
       </c>
       <c r="M35" t="n">
-        <v>467.4940748325458</v>
+        <v>240.6655073219761</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10750,7 +10750,7 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M37" t="n">
-        <v>104.1302923698531</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
-        <v>83.17659483411113</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>434.3676631324684</v>
+        <v>281.3517452140109</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>268.1451278440404</v>
       </c>
       <c r="N38" t="n">
-        <v>324.2058431699414</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>32.57717403463295</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10984,7 +10984,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
-        <v>94.20195752103433</v>
+        <v>67.34957698365659</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>268.1451278440404</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>396.0321885132552</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>283.1708784343307</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R41" t="n">
         <v>68.34507666790174</v>
@@ -11215,13 +11215,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>279.6998261949091</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11306,19 +11306,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>454.8408013884635</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>135.1752574608209</v>
+        <v>235.2641941129335</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11455,13 +11455,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -11473,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>165.2663860313839</v>
+        <v>165.2663860313838</v>
       </c>
       <c r="C11" t="n">
         <v>148.5350717189314</v>
       </c>
       <c r="D11" t="n">
-        <v>113.4678054892011</v>
+        <v>69.75768280651727</v>
       </c>
       <c r="E11" t="n">
-        <v>96.27098580720636</v>
+        <v>164.6680117952762</v>
       </c>
       <c r="F11" t="n">
-        <v>120.4468135324597</v>
+        <v>188.8438395205297</v>
       </c>
       <c r="G11" t="n">
-        <v>127.5622559676877</v>
+        <v>195.9592819557576</v>
       </c>
       <c r="H11" t="n">
         <v>115.1318174460265</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>110.0831975625082</v>
+        <v>41.68617157443822</v>
       </c>
       <c r="W11" t="n">
-        <v>132.0800930405434</v>
+        <v>63.68306705247346</v>
       </c>
       <c r="X11" t="n">
         <v>152.4115751711582</v>
       </c>
       <c r="Y11" t="n">
-        <v>168.2370477912246</v>
+        <v>143.5501444858383</v>
       </c>
     </row>
     <row r="12">
@@ -23495,22 +23495,22 @@
         <v>165.2663860313839</v>
       </c>
       <c r="C14" t="n">
-        <v>148.5350717189314</v>
+        <v>80.13804573086159</v>
       </c>
       <c r="D14" t="n">
-        <v>138.1547087945872</v>
+        <v>138.1547087945873</v>
       </c>
       <c r="E14" t="n">
         <v>164.6680117952763</v>
       </c>
       <c r="F14" t="n">
-        <v>120.4468135324597</v>
+        <v>188.8438395205297</v>
       </c>
       <c r="G14" t="n">
-        <v>127.5622559676877</v>
+        <v>195.9592819557577</v>
       </c>
       <c r="H14" t="n">
-        <v>46.73479145795656</v>
+        <v>115.1318174460265</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.565094327417455</v>
+        <v>2.5650943274175</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>110.0831975625082</v>
+        <v>82.83119992970458</v>
       </c>
       <c r="W14" t="n">
-        <v>132.0800930405434</v>
+        <v>63.68306705247355</v>
       </c>
       <c r="X14" t="n">
-        <v>152.4115751711582</v>
+        <v>84.01454918308835</v>
       </c>
       <c r="Y14" t="n">
-        <v>140.985050158421</v>
+        <v>168.2370477912247</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>658051.0060664717</v>
+        <v>658051.0060664716</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>658051.0060664716</v>
+        <v>658051.0060664717</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>794752.5205003581</v>
+        <v>794752.520500358</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>794752.520500358</v>
+        <v>794752.5205003578</v>
       </c>
     </row>
     <row r="15">
@@ -26314,19 +26314,19 @@
         <v>670029.0116484858</v>
       </c>
       <c r="C2" t="n">
-        <v>670029.0116484858</v>
+        <v>670029.011648486</v>
       </c>
       <c r="D2" t="n">
-        <v>670029.0116484858</v>
+        <v>670029.0116484859</v>
       </c>
       <c r="E2" t="n">
-        <v>576295.3035428274</v>
+        <v>576295.3035428271</v>
       </c>
       <c r="F2" t="n">
-        <v>576295.303542827</v>
+        <v>576295.3035428269</v>
       </c>
       <c r="G2" t="n">
-        <v>671483.5121073223</v>
+        <v>671483.5121073225</v>
       </c>
       <c r="H2" t="n">
         <v>671483.5121073225</v>
@@ -26335,25 +26335,25 @@
         <v>671483.5121073223</v>
       </c>
       <c r="J2" t="n">
-        <v>671483.5121073223</v>
+        <v>671483.5121073232</v>
       </c>
       <c r="K2" t="n">
-        <v>671483.5121073225</v>
+        <v>671483.5121073227</v>
       </c>
       <c r="L2" t="n">
-        <v>671483.5121073226</v>
+        <v>671483.5121073228</v>
       </c>
       <c r="M2" t="n">
+        <v>671483.5121073233</v>
+      </c>
+      <c r="N2" t="n">
         <v>671483.5121073228</v>
-      </c>
-      <c r="N2" t="n">
-        <v>671483.5121073229</v>
       </c>
       <c r="O2" t="n">
         <v>671483.5121073228</v>
       </c>
       <c r="P2" t="n">
-        <v>671483.5121073228</v>
+        <v>671483.512107323</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105664.0744324347</v>
+        <v>105664.0744324348</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>105664.0744324347</v>
+        <v>105664.0744324348</v>
       </c>
       <c r="M3" t="n">
         <v>17695.67856363344</v>
@@ -26430,7 +26430,7 @@
         <v>361458.6760153741</v>
       </c>
       <c r="G4" t="n">
-        <v>426193.4292983837</v>
+        <v>426193.4292983838</v>
       </c>
       <c r="H4" t="n">
         <v>426193.4292983838</v>
@@ -26439,25 +26439,25 @@
         <v>426193.4292983838</v>
       </c>
       <c r="J4" t="n">
+        <v>434774.7393444277</v>
+      </c>
+      <c r="K4" t="n">
         <v>434774.7393444278</v>
       </c>
-      <c r="K4" t="n">
-        <v>434774.7393444277</v>
-      </c>
       <c r="L4" t="n">
-        <v>434774.7393444277</v>
+        <v>434774.7393444278</v>
       </c>
       <c r="M4" t="n">
         <v>431062.8369613773</v>
       </c>
       <c r="N4" t="n">
-        <v>431062.8369613772</v>
+        <v>431062.8369613773</v>
       </c>
       <c r="O4" t="n">
         <v>431062.8369613773</v>
       </c>
       <c r="P4" t="n">
-        <v>431062.8369613772</v>
+        <v>431062.8369613773</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>24939.02968325745</v>
       </c>
       <c r="F5" t="n">
-        <v>24939.02968325745</v>
+        <v>24939.02968325744</v>
       </c>
       <c r="G5" t="n">
         <v>36042.87102508289</v>
@@ -26503,13 +26503,13 @@
         <v>45042.30008022612</v>
       </c>
       <c r="N5" t="n">
-        <v>45042.30008022613</v>
+        <v>45042.30008022612</v>
       </c>
       <c r="O5" t="n">
-        <v>45042.30008022613</v>
+        <v>45042.30008022612</v>
       </c>
       <c r="P5" t="n">
-        <v>45042.30008022613</v>
+        <v>45042.30008022612</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>172849.2910127942</v>
+        <v>172844.8834356462</v>
       </c>
       <c r="C6" t="n">
-        <v>172849.2910127942</v>
+        <v>172844.8834356464</v>
       </c>
       <c r="D6" t="n">
-        <v>172849.2910127942</v>
+        <v>172844.8834356463</v>
       </c>
       <c r="E6" t="n">
-        <v>-94307.78645980329</v>
+        <v>-94596.23557666568</v>
       </c>
       <c r="F6" t="n">
-        <v>189897.5978441954</v>
+        <v>189609.1487273333</v>
       </c>
       <c r="G6" t="n">
-        <v>103583.137351421</v>
+        <v>103583.1373514211</v>
       </c>
       <c r="H6" t="n">
         <v>209247.2117838558</v>
@@ -26543,25 +26543,25 @@
         <v>209247.2117838557</v>
       </c>
       <c r="J6" t="n">
-        <v>22742.6976607992</v>
+        <v>22742.69766080007</v>
       </c>
       <c r="K6" t="n">
-        <v>189367.5060040516</v>
+        <v>189367.5060040517</v>
       </c>
       <c r="L6" t="n">
-        <v>83703.43157161697</v>
+        <v>83703.43157161708</v>
       </c>
       <c r="M6" t="n">
-        <v>177682.6965020859</v>
+        <v>177682.6965020864</v>
       </c>
       <c r="N6" t="n">
-        <v>195378.3750657196</v>
+        <v>195378.3750657194</v>
       </c>
       <c r="O6" t="n">
         <v>124230.3548682112</v>
       </c>
       <c r="P6" t="n">
-        <v>195378.3750657194</v>
+        <v>195378.3750657196</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>218.4500239600112</v>
       </c>
       <c r="F2" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="G2" t="n">
         <v>350.5301170005546</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="F3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="G3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="H3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="I3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="J3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="K3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="L3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="M3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="N3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="O3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="P3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554409</v>
       </c>
     </row>
     <row r="4">
@@ -26805,7 +26805,7 @@
         <v>68.39702598806991</v>
       </c>
       <c r="H4" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="I4" t="n">
         <v>68.39702598806993</v>
@@ -26820,16 +26820,16 @@
         <v>433.3080812606695</v>
       </c>
       <c r="M4" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="N4" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="O4" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="P4" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725995</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>132.0800930405434</v>
+        <v>132.0800930405435</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>132.0800930405434</v>
+        <v>132.0800930405435</v>
       </c>
       <c r="M2" t="n">
         <v>22.1195982045418</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554409</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>132.0800930405434</v>
+        <v>132.0800930405435</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -28108,31 +28108,31 @@
         <v>218.4500239600112</v>
       </c>
       <c r="I11" t="n">
-        <v>188.0507309546109</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="J11" t="n">
-        <v>138.7119396886106</v>
+        <v>138.7119396886107</v>
       </c>
       <c r="K11" t="n">
-        <v>157.92348741428</v>
+        <v>202.5825307045831</v>
       </c>
       <c r="L11" t="n">
         <v>159.5754064333818</v>
       </c>
       <c r="M11" t="n">
-        <v>214.7658150514811</v>
+        <v>214.7658150514812</v>
       </c>
       <c r="N11" t="n">
-        <v>206.3211875902343</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>217.6878698049957</v>
       </c>
       <c r="P11" t="n">
-        <v>161.3945396537014</v>
+        <v>161.3945396537015</v>
       </c>
       <c r="Q11" t="n">
-        <v>218.4500239600112</v>
+        <v>73.60604110578734</v>
       </c>
       <c r="R11" t="n">
         <v>218.4500239600112</v>
@@ -28184,7 +28184,7 @@
         <v>135.7848683666891</v>
       </c>
       <c r="H12" t="n">
-        <v>160.3894919798466</v>
+        <v>108.160635135932</v>
       </c>
       <c r="I12" t="n">
         <v>88.82825281985649</v>
@@ -28193,28 +28193,28 @@
         <v>101.1486090703222</v>
       </c>
       <c r="K12" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L12" t="n">
-        <v>83.34002595346598</v>
+        <v>135.5688827973805</v>
       </c>
       <c r="M12" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175256</v>
       </c>
       <c r="N12" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O12" t="n">
-        <v>82.32375190725116</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P12" t="n">
-        <v>85.11220969290983</v>
+        <v>85.11220969290984</v>
       </c>
       <c r="Q12" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R12" t="n">
-        <v>79.89687860438912</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S12" t="n">
         <v>164.5345187941275</v>
@@ -28254,16 +28254,16 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
-        <v>215.3716501612691</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>214.5560473978744</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
+        <v>167.689771139254</v>
+      </c>
+      <c r="H13" t="n">
         <v>218.4500239600112</v>
-      </c>
-      <c r="H13" t="n">
-        <v>159.857510195687</v>
       </c>
       <c r="I13" t="n">
         <v>147.7494808688102</v>
@@ -28278,22 +28278,22 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M13" t="n">
-        <v>104.1302923698531</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N13" t="n">
-        <v>93.91583427681485</v>
+        <v>162.3128602648848</v>
       </c>
       <c r="O13" t="n">
         <v>106.7517885160091</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>174.091369683679</v>
       </c>
       <c r="Q13" t="n">
         <v>130.9853613927381</v>
       </c>
       <c r="R13" t="n">
-        <v>167.8154674152065</v>
+        <v>164.4066131828346</v>
       </c>
       <c r="S13" t="n">
         <v>218.4500239600112</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="C14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="D14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="E14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="F14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="G14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="H14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="I14" t="n">
-        <v>218.4500239600112</v>
+        <v>188.0507309546109</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>157.92348741428</v>
+        <v>57.40474696950987</v>
       </c>
       <c r="L14" t="n">
-        <v>218.4500239600112</v>
+        <v>159.5754064333818</v>
       </c>
       <c r="M14" t="n">
-        <v>45.85004861864412</v>
+        <v>146.3687890634113</v>
       </c>
       <c r="N14" t="n">
-        <v>212.59031289111</v>
+        <v>180.7865752566179</v>
       </c>
       <c r="O14" t="n">
-        <v>149.2908438169258</v>
+        <v>217.6878698049957</v>
       </c>
       <c r="P14" t="n">
-        <v>202.0056209397706</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="Q14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="R14" t="n">
-        <v>182.2138048017995</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="S14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="T14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="U14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="V14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="W14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="X14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="Y14" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
     </row>
     <row r="15">
@@ -28409,7 +28409,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>146.1124235746456</v>
+        <v>198.3412804185603</v>
       </c>
       <c r="E15" t="n">
         <v>156.0334337071738</v>
@@ -28430,22 +28430,22 @@
         <v>101.1486090703222</v>
       </c>
       <c r="K15" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L15" t="n">
-        <v>83.34002595346598</v>
+        <v>83.340025953466</v>
       </c>
       <c r="M15" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175256</v>
       </c>
       <c r="N15" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O15" t="n">
-        <v>82.32375190725116</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P15" t="n">
-        <v>137.3410665368244</v>
+        <v>85.11220969290984</v>
       </c>
       <c r="Q15" t="n">
         <v>106.0581031398714</v>
@@ -28460,13 +28460,13 @@
         <v>197.4218470422748</v>
       </c>
       <c r="U15" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="V15" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="W15" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -28491,31 +28491,31 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
-        <v>146.9746241731992</v>
+        <v>215.3716501612691</v>
       </c>
       <c r="F16" t="n">
-        <v>214.5560473978744</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>167.689771139254</v>
+        <v>177.6199796389527</v>
       </c>
       <c r="H16" t="n">
-        <v>159.857510195687</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="I16" t="n">
         <v>147.7494808688102</v>
       </c>
       <c r="J16" t="n">
-        <v>163.8625251431573</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K16" t="n">
-        <v>170.9697584578413</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L16" t="n">
         <v>101.8051034503207</v>
       </c>
       <c r="M16" t="n">
-        <v>104.1302923698531</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N16" t="n">
         <v>93.91583427681485</v>
@@ -28530,28 +28530,28 @@
         <v>130.9853613927381</v>
       </c>
       <c r="R16" t="n">
-        <v>164.4066131828346</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="S16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="T16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="U16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="V16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="W16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="X16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.4500239600112</v>
+        <v>218.4500239600111</v>
       </c>
     </row>
     <row r="17">
@@ -28579,43 +28579,43 @@
         <v>350.5301170005546</v>
       </c>
       <c r="H17" t="n">
-        <v>350.5301170005546</v>
+        <v>333.5818414060377</v>
       </c>
       <c r="I17" t="n">
-        <v>188.0507309546109</v>
+        <v>253.6842407411427</v>
       </c>
       <c r="J17" t="n">
-        <v>138.7119396886106</v>
+        <v>138.7119396886107</v>
       </c>
       <c r="K17" t="n">
         <v>157.92348741428</v>
       </c>
       <c r="L17" t="n">
-        <v>208.2606406253966</v>
+        <v>159.5754064333818</v>
       </c>
       <c r="M17" t="n">
-        <v>146.3687890634112</v>
+        <v>214.7658150514812</v>
       </c>
       <c r="N17" t="n">
         <v>144.1932869030401</v>
       </c>
       <c r="O17" t="n">
-        <v>149.2908438169258</v>
+        <v>217.6878698049957</v>
       </c>
       <c r="P17" t="n">
-        <v>161.3945396537014</v>
+        <v>161.3945396537015</v>
       </c>
       <c r="Q17" t="n">
-        <v>168.6434343361249</v>
+        <v>168.643434336125</v>
       </c>
       <c r="R17" t="n">
         <v>182.2138048017995</v>
       </c>
       <c r="S17" t="n">
-        <v>264.1110696273946</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T17" t="n">
-        <v>289.4121442754985</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="U17" t="n">
         <v>319.8391528055694</v>
@@ -28667,22 +28667,22 @@
         <v>101.1486090703222</v>
       </c>
       <c r="K18" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L18" t="n">
-        <v>83.34002595346598</v>
+        <v>83.340025953466</v>
       </c>
       <c r="M18" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175256</v>
       </c>
       <c r="N18" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O18" t="n">
-        <v>82.32375190725116</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P18" t="n">
-        <v>85.11220969290983</v>
+        <v>85.11220969290984</v>
       </c>
       <c r="Q18" t="n">
         <v>106.0581031398714</v>
@@ -28752,7 +28752,7 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M19" t="n">
-        <v>104.1302923698531</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N19" t="n">
         <v>93.91583427681485</v>
@@ -28816,13 +28816,13 @@
         <v>350.5301170005546</v>
       </c>
       <c r="H20" t="n">
-        <v>350.5301170005546</v>
+        <v>333.5818414060377</v>
       </c>
       <c r="I20" t="n">
         <v>256.4477569426808</v>
       </c>
       <c r="J20" t="n">
-        <v>138.7119396886106</v>
+        <v>138.7119396886107</v>
       </c>
       <c r="K20" t="n">
         <v>157.92348741428</v>
@@ -28831,7 +28831,7 @@
         <v>159.5754064333818</v>
       </c>
       <c r="M20" t="n">
-        <v>146.3687890634112</v>
+        <v>214.7658150514812</v>
       </c>
       <c r="N20" t="n">
         <v>144.1932869030401</v>
@@ -28840,19 +28840,19 @@
         <v>149.2908438169258</v>
       </c>
       <c r="P20" t="n">
-        <v>161.3945396537014</v>
+        <v>161.3945396537015</v>
       </c>
       <c r="Q20" t="n">
-        <v>168.6434343361249</v>
+        <v>212.2800486446214</v>
       </c>
       <c r="R20" t="n">
         <v>182.2138048017995</v>
       </c>
       <c r="S20" t="n">
-        <v>264.1110696273947</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T20" t="n">
-        <v>247.7034570014082</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="U20" t="n">
         <v>319.8391528055694</v>
@@ -28904,22 +28904,22 @@
         <v>101.1486090703222</v>
       </c>
       <c r="K21" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L21" t="n">
-        <v>83.34002595346598</v>
+        <v>83.340025953466</v>
       </c>
       <c r="M21" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175256</v>
       </c>
       <c r="N21" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O21" t="n">
-        <v>82.32375190725116</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P21" t="n">
-        <v>85.11220969290983</v>
+        <v>85.11220969290984</v>
       </c>
       <c r="Q21" t="n">
         <v>106.0581031398714</v>
@@ -28989,7 +28989,7 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M22" t="n">
-        <v>104.1302923698531</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N22" t="n">
         <v>93.91583427681485</v>
@@ -29053,13 +29053,13 @@
         <v>350.5301170005546</v>
       </c>
       <c r="H23" t="n">
-        <v>350.5301170005546</v>
+        <v>333.5818414060377</v>
       </c>
       <c r="I23" t="n">
         <v>188.0507309546109</v>
       </c>
       <c r="J23" t="n">
-        <v>138.7119396886106</v>
+        <v>204.3454494751424</v>
       </c>
       <c r="K23" t="n">
         <v>157.92348741428</v>
@@ -29068,7 +29068,7 @@
         <v>159.5754064333818</v>
       </c>
       <c r="M23" t="n">
-        <v>146.3687890634112</v>
+        <v>214.7658150514812</v>
       </c>
       <c r="N23" t="n">
         <v>144.1932869030401</v>
@@ -29077,16 +29077,16 @@
         <v>149.2908438169258</v>
       </c>
       <c r="P23" t="n">
-        <v>229.7915656417713</v>
+        <v>229.7915656417714</v>
       </c>
       <c r="Q23" t="n">
-        <v>237.0404603241948</v>
+        <v>237.0404603241949</v>
       </c>
       <c r="R23" t="n">
-        <v>250.6108307898695</v>
+        <v>182.2138048017995</v>
       </c>
       <c r="S23" t="n">
-        <v>244.3992778313395</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T23" t="n">
         <v>221.0151182874286</v>
@@ -29141,22 +29141,22 @@
         <v>101.1486090703222</v>
       </c>
       <c r="K24" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L24" t="n">
-        <v>83.34002595346598</v>
+        <v>83.340025953466</v>
       </c>
       <c r="M24" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175256</v>
       </c>
       <c r="N24" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O24" t="n">
-        <v>82.32375190725116</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P24" t="n">
-        <v>85.11220969290983</v>
+        <v>85.11220969290984</v>
       </c>
       <c r="Q24" t="n">
         <v>106.0581031398714</v>
@@ -29226,7 +29226,7 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M25" t="n">
-        <v>104.1302923698531</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N25" t="n">
         <v>93.91583427681485</v>
@@ -29299,13 +29299,13 @@
         <v>221.0151182874286</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
         <v>221.0151182874286</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>221.0151182874286</v>
@@ -29314,7 +29314,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="P26" t="n">
-        <v>221.0151182874286</v>
+        <v>57.55698656355496</v>
       </c>
       <c r="Q26" t="n">
         <v>221.0151182874286</v>
@@ -29323,7 +29323,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="S26" t="n">
-        <v>221.0151182874286</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T26" t="n">
         <v>221.0151182874286</v>
@@ -29366,7 +29366,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>180.1621968132439</v>
+        <v>135.7848683666891</v>
       </c>
       <c r="H27" t="n">
         <v>108.160635135932</v>
@@ -29378,25 +29378,25 @@
         <v>101.1486090703222</v>
       </c>
       <c r="K27" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L27" t="n">
-        <v>83.34002595346598</v>
+        <v>83.340025953466</v>
       </c>
       <c r="M27" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175256</v>
       </c>
       <c r="N27" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O27" t="n">
-        <v>82.32375190725116</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P27" t="n">
-        <v>85.11220969290983</v>
+        <v>129.4895381394648</v>
       </c>
       <c r="Q27" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>127.2394152081628</v>
@@ -29448,7 +29448,7 @@
         <v>167.689771139254</v>
       </c>
       <c r="H28" t="n">
-        <v>172.0151728828863</v>
+        <v>159.857510195687</v>
       </c>
       <c r="I28" t="n">
         <v>147.7494808688102</v>
@@ -29457,16 +29457,16 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K28" t="n">
+        <v>150.4722874577685</v>
+      </c>
+      <c r="L28" t="n">
+        <v>101.8051034503207</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>221.0151182874286</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>93.91583427681485</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -29475,13 +29475,13 @@
         <v>110.1177504068044</v>
       </c>
       <c r="Q28" t="n">
-        <v>130.9853613927381</v>
+        <v>63.02868467987659</v>
       </c>
       <c r="R28" t="n">
         <v>164.4066131828346</v>
       </c>
       <c r="S28" t="n">
-        <v>218.8751278244474</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="T28" t="n">
         <v>221.0151182874286</v>
@@ -29530,25 +29530,25 @@
         <v>221.0151182874286</v>
       </c>
       <c r="I29" t="n">
-        <v>221.0151182874286</v>
+        <v>188.0507309546109</v>
       </c>
       <c r="J29" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
         <v>221.0151182874286</v>
-      </c>
-      <c r="M29" t="n">
-        <v>67.33023105258538</v>
       </c>
       <c r="N29" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="O29" t="n">
-        <v>221.0151182874286</v>
+        <v>52.5778810037572</v>
       </c>
       <c r="P29" t="n">
         <v>221.0151182874286</v>
@@ -29591,7 +29591,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>215.4029123739558</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
         <v>146.1124235746456</v>
@@ -29612,25 +29612,25 @@
         <v>88.82825281985649</v>
       </c>
       <c r="J30" t="n">
-        <v>101.1486090703222</v>
+        <v>145.525937516877</v>
       </c>
       <c r="K30" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L30" t="n">
-        <v>83.34002595346598</v>
+        <v>83.340025953466</v>
       </c>
       <c r="M30" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175256</v>
       </c>
       <c r="N30" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O30" t="n">
-        <v>82.32375190725116</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>85.11220969290983</v>
+        <v>85.11220969290984</v>
       </c>
       <c r="Q30" t="n">
         <v>106.0581031398714</v>
@@ -29691,28 +29691,28 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J31" t="n">
-        <v>221.0151182874286</v>
+        <v>159.7329635410062</v>
       </c>
       <c r="K31" t="n">
         <v>102.5727324697714</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q31" t="n">
-        <v>130.9853613927381</v>
+        <v>63.02868467987659</v>
       </c>
       <c r="R31" t="n">
         <v>164.4066131828346</v>
@@ -29773,7 +29773,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="K32" t="n">
-        <v>221.0151182874286</v>
+        <v>85.83800082444517</v>
       </c>
       <c r="L32" t="n">
         <v>221.0151182874286</v>
@@ -29785,7 +29785,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29831,7 +29831,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
-        <v>146.1124235746456</v>
+        <v>190.4897520212004</v>
       </c>
       <c r="E33" t="n">
         <v>156.0334337071738</v>
@@ -29849,25 +29849,25 @@
         <v>88.82825281985649</v>
       </c>
       <c r="J33" t="n">
-        <v>101.1486090703222</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L33" t="n">
-        <v>127.7173544000209</v>
+        <v>83.340025953466</v>
       </c>
       <c r="M33" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175256</v>
       </c>
       <c r="N33" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O33" t="n">
-        <v>82.32375190725116</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P33" t="n">
-        <v>85.11220969290983</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>106.0581031398714</v>
@@ -29907,13 +29907,13 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C34" t="n">
-        <v>167.3365529312023</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="D34" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>146.9746241731992</v>
+        <v>151.9925024609075</v>
       </c>
       <c r="F34" t="n">
         <v>146.1590214098045</v>
@@ -29925,31 +29925,31 @@
         <v>159.857510195687</v>
       </c>
       <c r="I34" t="n">
-        <v>206.4459245127449</v>
+        <v>147.7494808688102</v>
       </c>
       <c r="J34" t="n">
-        <v>109.6934180900282</v>
+        <v>74.71172711439593</v>
       </c>
       <c r="K34" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="L34" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>55.68970027656324</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>93.91583427681485</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>106.7517885160091</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>130.9853613927381</v>
+        <v>63.02868467987659</v>
       </c>
       <c r="R34" t="n">
         <v>164.4066131828346</v>
@@ -30013,10 +30013,10 @@
         <v>243.1347164919704</v>
       </c>
       <c r="L35" t="n">
+        <v>96.14227697887303</v>
+      </c>
+      <c r="M35" t="n">
         <v>243.1347164919704</v>
-      </c>
-      <c r="M35" t="n">
-        <v>3.854856630361729</v>
       </c>
       <c r="N35" t="n">
         <v>243.1347164919704</v>
@@ -30025,7 +30025,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="P35" t="n">
-        <v>243.1347164919704</v>
+        <v>161.3945396537015</v>
       </c>
       <c r="Q35" t="n">
         <v>243.1347164919704</v>
@@ -30089,22 +30089,22 @@
         <v>101.1486090703222</v>
       </c>
       <c r="K36" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L36" t="n">
-        <v>83.34002595346598</v>
+        <v>83.340025953466</v>
       </c>
       <c r="M36" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175256</v>
       </c>
       <c r="N36" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O36" t="n">
-        <v>82.32375190725116</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P36" t="n">
-        <v>92.10601671059135</v>
+        <v>85.11220969290984</v>
       </c>
       <c r="Q36" t="n">
         <v>106.0581031398714</v>
@@ -30116,7 +30116,7 @@
         <v>164.5345187941275</v>
       </c>
       <c r="T36" t="n">
-        <v>197.4218470422748</v>
+        <v>204.4156540599563</v>
       </c>
       <c r="U36" t="n">
         <v>224.641496683099</v>
@@ -30165,7 +30165,7 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J37" t="n">
-        <v>207.3019781525518</v>
+        <v>74.71172711439593</v>
       </c>
       <c r="K37" t="n">
         <v>102.5727324697714</v>
@@ -30180,7 +30180,7 @@
         <v>93.91583427681485</v>
       </c>
       <c r="O37" t="n">
-        <v>106.7517885160091</v>
+        <v>204.3603485785326</v>
       </c>
       <c r="P37" t="n">
         <v>110.1177504068044</v>
@@ -30247,16 +30247,16 @@
         <v>243.1347164919704</v>
       </c>
       <c r="K38" t="n">
+        <v>240.1384702968832</v>
+      </c>
+      <c r="L38" t="n">
         <v>243.1347164919704</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>243.1347164919704</v>
       </c>
       <c r="N38" t="n">
-        <v>184.8984990056983</v>
+        <v>144.1932869030401</v>
       </c>
       <c r="O38" t="n">
         <v>243.1347164919704</v>
@@ -30268,13 +30268,13 @@
         <v>243.1347164919704</v>
       </c>
       <c r="R38" t="n">
-        <v>243.1347164919704</v>
+        <v>113.8687281338978</v>
       </c>
       <c r="S38" t="n">
         <v>243.1347164919704</v>
       </c>
       <c r="T38" t="n">
-        <v>243.1347164919704</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="U38" t="n">
         <v>243.1347164919704</v>
@@ -30326,28 +30326,28 @@
         <v>101.1486090703222</v>
       </c>
       <c r="K39" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L39" t="n">
-        <v>83.34002595346598</v>
+        <v>83.340025953466</v>
       </c>
       <c r="M39" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175256</v>
       </c>
       <c r="N39" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O39" t="n">
-        <v>82.32375190725116</v>
+        <v>89.31755892493268</v>
       </c>
       <c r="P39" t="n">
-        <v>85.11220969290983</v>
+        <v>85.11220969290984</v>
       </c>
       <c r="Q39" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R39" t="n">
-        <v>127.2394152081628</v>
+        <v>94.66224117352982</v>
       </c>
       <c r="S39" t="n">
         <v>164.5345187941275</v>
@@ -30356,7 +30356,7 @@
         <v>197.4218470422748</v>
       </c>
       <c r="U39" t="n">
-        <v>231.6353037007806</v>
+        <v>224.641496683099</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -30384,7 +30384,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
-        <v>205.2337273931797</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
         <v>146.9746241731992</v>
@@ -30405,13 +30405,13 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K40" t="n">
-        <v>102.5727324697714</v>
+        <v>200.1812925322949</v>
       </c>
       <c r="L40" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>104.1302923698531</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N40" t="n">
         <v>93.91583427681485</v>
@@ -30444,10 +30444,10 @@
         <v>243.1347164919704</v>
       </c>
       <c r="X40" t="n">
-        <v>243.1347164919704</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y40" t="n">
-        <v>243.1347164919704</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="41">
@@ -30487,7 +30487,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="L41" t="n">
-        <v>243.1347164919704</v>
+        <v>159.5754064333818</v>
       </c>
       <c r="M41" t="n">
         <v>243.1347164919704</v>
@@ -30496,7 +30496,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="O41" t="n">
-        <v>71.0297708717993</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="P41" t="n">
         <v>243.1347164919704</v>
@@ -30508,7 +30508,7 @@
         <v>113.8687281338978</v>
       </c>
       <c r="S41" t="n">
-        <v>243.1347164919704</v>
+        <v>195.8313305060534</v>
       </c>
       <c r="T41" t="n">
         <v>243.1347164919704</v>
@@ -30554,31 +30554,31 @@
         <v>135.7848683666891</v>
       </c>
       <c r="H42" t="n">
-        <v>115.1544421536135</v>
+        <v>108.160635135932</v>
       </c>
       <c r="I42" t="n">
-        <v>88.82825281985649</v>
+        <v>95.82205983753798</v>
       </c>
       <c r="J42" t="n">
         <v>101.1486090703222</v>
       </c>
       <c r="K42" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L42" t="n">
-        <v>83.34002595346598</v>
+        <v>83.340025953466</v>
       </c>
       <c r="M42" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175256</v>
       </c>
       <c r="N42" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O42" t="n">
-        <v>82.32375190725116</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P42" t="n">
-        <v>85.11220969290983</v>
+        <v>85.11220969290984</v>
       </c>
       <c r="Q42" t="n">
         <v>106.0581031398714</v>
@@ -30639,19 +30639,19 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J43" t="n">
-        <v>109.6934180900282</v>
+        <v>74.71172711439593</v>
       </c>
       <c r="K43" t="n">
         <v>102.5727324697714</v>
       </c>
       <c r="L43" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>104.1302923698531</v>
+        <v>104.1302923698532</v>
       </c>
       <c r="N43" t="n">
-        <v>93.91583427681485</v>
+        <v>191.5243943393384</v>
       </c>
       <c r="O43" t="n">
         <v>106.7517885160091</v>
@@ -30660,7 +30660,7 @@
         <v>110.1177504068044</v>
       </c>
       <c r="Q43" t="n">
-        <v>228.5939214552617</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R43" t="n">
         <v>164.4066131828346</v>
@@ -30721,7 +30721,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="K44" t="n">
-        <v>215.824951006634</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="L44" t="n">
         <v>243.1347164919704</v>
@@ -30730,16 +30730,16 @@
         <v>243.1347164919704</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>144.1932869030401</v>
       </c>
       <c r="O44" t="n">
         <v>243.1347164919704</v>
       </c>
       <c r="P44" t="n">
-        <v>243.1347164919704</v>
+        <v>197.777018640323</v>
       </c>
       <c r="Q44" t="n">
-        <v>243.1347164919704</v>
+        <v>168.643434336125</v>
       </c>
       <c r="R44" t="n">
         <v>243.1347164919704</v>
@@ -30800,28 +30800,28 @@
         <v>101.1486090703222</v>
       </c>
       <c r="K45" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065692</v>
       </c>
       <c r="L45" t="n">
-        <v>83.34002595346598</v>
+        <v>83.340025953466</v>
       </c>
       <c r="M45" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175256</v>
       </c>
       <c r="N45" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955194</v>
       </c>
       <c r="O45" t="n">
-        <v>82.32375190725116</v>
+        <v>82.32375190725119</v>
       </c>
       <c r="P45" t="n">
-        <v>85.11220969290983</v>
+        <v>85.11220969290984</v>
       </c>
       <c r="Q45" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R45" t="n">
-        <v>127.2394152081628</v>
+        <v>134.2332222258443</v>
       </c>
       <c r="S45" t="n">
         <v>164.5345187941275</v>
@@ -30833,7 +30833,7 @@
         <v>224.641496683099</v>
       </c>
       <c r="V45" t="n">
-        <v>238.9025380573366</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
         <v>243.1347164919704</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.0836914906838</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="C46" t="n">
         <v>167.3365529312023</v>
@@ -30879,16 +30879,16 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L46" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>93.91583427681485</v>
+        <v>128.4733693380518</v>
       </c>
       <c r="O46" t="n">
         <v>106.7517885160091</v>
@@ -30897,10 +30897,10 @@
         <v>110.1177504068044</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.9853613927381</v>
+        <v>63.02868467987659</v>
       </c>
       <c r="R46" t="n">
-        <v>243.1347164919704</v>
+        <v>164.4066131828346</v>
       </c>
       <c r="S46" t="n">
         <v>218.8751278244474</v>
@@ -30918,10 +30918,10 @@
         <v>243.1347164919704</v>
       </c>
       <c r="X46" t="n">
-        <v>243.1347164919704</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.6347740614949</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620737</v>
       </c>
       <c r="H11" t="n">
-        <v>4.562061982115716</v>
+        <v>4.562061982115714</v>
       </c>
       <c r="I11" t="n">
         <v>17.17357691351312</v>
       </c>
       <c r="J11" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490847</v>
       </c>
       <c r="K11" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457606</v>
       </c>
       <c r="L11" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235576</v>
       </c>
       <c r="M11" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317966</v>
       </c>
       <c r="N11" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363604</v>
       </c>
       <c r="O11" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921879</v>
       </c>
       <c r="P11" t="n">
-        <v>64.05763120768636</v>
+        <v>64.05763120768633</v>
       </c>
       <c r="Q11" t="n">
-        <v>48.10461329146332</v>
+        <v>48.1046132914633</v>
       </c>
       <c r="R11" t="n">
-        <v>27.98209456697927</v>
+        <v>27.98209456697926</v>
       </c>
       <c r="S11" t="n">
         <v>10.15090808421452</v>
       </c>
       <c r="T11" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.0356367590449659</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532126</v>
       </c>
       <c r="H12" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I12" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143503</v>
       </c>
       <c r="J12" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967786</v>
       </c>
       <c r="K12" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934311</v>
       </c>
       <c r="L12" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191136</v>
       </c>
       <c r="M12" t="n">
-        <v>60.39038597221532</v>
+        <v>60.3903859722153</v>
       </c>
       <c r="N12" t="n">
-        <v>61.98873979169807</v>
+        <v>61.98873979169804</v>
       </c>
       <c r="O12" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608212</v>
       </c>
       <c r="P12" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606215</v>
       </c>
       <c r="Q12" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R12" t="n">
         <v>14.7981011567021</v>
       </c>
       <c r="S12" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516906</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938696</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218504</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H13" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229857</v>
       </c>
       <c r="I13" t="n">
-        <v>6.009065928593423</v>
+        <v>6.00906592859342</v>
       </c>
       <c r="J13" t="n">
         <v>14.12711781338302</v>
       </c>
       <c r="K13" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L13" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388657</v>
       </c>
       <c r="M13" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906176</v>
       </c>
       <c r="N13" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678751</v>
       </c>
       <c r="O13" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P13" t="n">
         <v>24.16705354111452</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.73201519597159</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R13" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947716</v>
       </c>
       <c r="S13" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975085</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.853766924558315</v>
       </c>
       <c r="U13" t="n">
         <v>0.01089915222840404</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620737</v>
       </c>
       <c r="H14" t="n">
-        <v>4.562061982115716</v>
+        <v>4.562061982115714</v>
       </c>
       <c r="I14" t="n">
         <v>17.17357691351312</v>
       </c>
       <c r="J14" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490847</v>
       </c>
       <c r="K14" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457606</v>
       </c>
       <c r="L14" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235576</v>
       </c>
       <c r="M14" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317966</v>
       </c>
       <c r="N14" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363604</v>
       </c>
       <c r="O14" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921879</v>
       </c>
       <c r="P14" t="n">
-        <v>64.05763120768636</v>
+        <v>64.05763120768633</v>
       </c>
       <c r="Q14" t="n">
-        <v>48.10461329146332</v>
+        <v>48.1046132914633</v>
       </c>
       <c r="R14" t="n">
-        <v>27.98209456697927</v>
+        <v>27.98209456697926</v>
       </c>
       <c r="S14" t="n">
         <v>10.15090808421452</v>
       </c>
       <c r="T14" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.0356367590449659</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532126</v>
       </c>
       <c r="H15" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I15" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143503</v>
       </c>
       <c r="J15" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967786</v>
       </c>
       <c r="K15" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934311</v>
       </c>
       <c r="L15" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191136</v>
       </c>
       <c r="M15" t="n">
-        <v>60.39038597221532</v>
+        <v>60.3903859722153</v>
       </c>
       <c r="N15" t="n">
-        <v>61.98873979169807</v>
+        <v>61.98873979169804</v>
       </c>
       <c r="O15" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608212</v>
       </c>
       <c r="P15" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606215</v>
       </c>
       <c r="Q15" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R15" t="n">
         <v>14.7981011567021</v>
       </c>
       <c r="S15" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516906</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938696</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218504</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H16" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229857</v>
       </c>
       <c r="I16" t="n">
-        <v>6.009065928593423</v>
+        <v>6.00906592859342</v>
       </c>
       <c r="J16" t="n">
         <v>14.12711781338302</v>
       </c>
       <c r="K16" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L16" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388657</v>
       </c>
       <c r="M16" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906176</v>
       </c>
       <c r="N16" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678751</v>
       </c>
       <c r="O16" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P16" t="n">
         <v>24.16705354111452</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.73201519597159</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R16" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947716</v>
       </c>
       <c r="S16" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975085</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.853766924558315</v>
       </c>
       <c r="U16" t="n">
         <v>0.01089915222840404</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620737</v>
       </c>
       <c r="H17" t="n">
-        <v>4.562061982115716</v>
+        <v>4.562061982115714</v>
       </c>
       <c r="I17" t="n">
         <v>17.17357691351312</v>
       </c>
       <c r="J17" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490847</v>
       </c>
       <c r="K17" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457606</v>
       </c>
       <c r="L17" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235576</v>
       </c>
       <c r="M17" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317966</v>
       </c>
       <c r="N17" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363604</v>
       </c>
       <c r="O17" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921879</v>
       </c>
       <c r="P17" t="n">
-        <v>64.05763120768636</v>
+        <v>64.05763120768633</v>
       </c>
       <c r="Q17" t="n">
-        <v>48.10461329146332</v>
+        <v>48.1046132914633</v>
       </c>
       <c r="R17" t="n">
-        <v>27.98209456697927</v>
+        <v>27.98209456697926</v>
       </c>
       <c r="S17" t="n">
         <v>10.15090808421452</v>
       </c>
       <c r="T17" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.0356367590449659</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532126</v>
       </c>
       <c r="H18" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I18" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143503</v>
       </c>
       <c r="J18" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967786</v>
       </c>
       <c r="K18" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934311</v>
       </c>
       <c r="L18" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191136</v>
       </c>
       <c r="M18" t="n">
-        <v>60.39038597221532</v>
+        <v>60.3903859722153</v>
       </c>
       <c r="N18" t="n">
-        <v>61.98873979169807</v>
+        <v>61.98873979169804</v>
       </c>
       <c r="O18" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608212</v>
       </c>
       <c r="P18" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606215</v>
       </c>
       <c r="Q18" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R18" t="n">
         <v>14.7981011567021</v>
       </c>
       <c r="S18" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516906</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938696</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218504</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H19" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229857</v>
       </c>
       <c r="I19" t="n">
-        <v>6.009065928593423</v>
+        <v>6.00906592859342</v>
       </c>
       <c r="J19" t="n">
         <v>14.12711781338302</v>
       </c>
       <c r="K19" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L19" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388657</v>
       </c>
       <c r="M19" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906176</v>
       </c>
       <c r="N19" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678751</v>
       </c>
       <c r="O19" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P19" t="n">
         <v>24.16705354111452</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.73201519597159</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R19" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947716</v>
       </c>
       <c r="S19" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975085</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.853766924558315</v>
       </c>
       <c r="U19" t="n">
         <v>0.01089915222840404</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620737</v>
       </c>
       <c r="H20" t="n">
-        <v>4.562061982115716</v>
+        <v>4.562061982115714</v>
       </c>
       <c r="I20" t="n">
         <v>17.17357691351312</v>
       </c>
       <c r="J20" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490847</v>
       </c>
       <c r="K20" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457606</v>
       </c>
       <c r="L20" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235576</v>
       </c>
       <c r="M20" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317966</v>
       </c>
       <c r="N20" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363604</v>
       </c>
       <c r="O20" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921879</v>
       </c>
       <c r="P20" t="n">
-        <v>64.05763120768636</v>
+        <v>64.05763120768633</v>
       </c>
       <c r="Q20" t="n">
-        <v>48.10461329146332</v>
+        <v>48.1046132914633</v>
       </c>
       <c r="R20" t="n">
-        <v>27.98209456697927</v>
+        <v>27.98209456697926</v>
       </c>
       <c r="S20" t="n">
         <v>10.15090808421452</v>
       </c>
       <c r="T20" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.0356367590449659</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532126</v>
       </c>
       <c r="H21" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I21" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143503</v>
       </c>
       <c r="J21" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967786</v>
       </c>
       <c r="K21" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934311</v>
       </c>
       <c r="L21" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191136</v>
       </c>
       <c r="M21" t="n">
-        <v>60.39038597221532</v>
+        <v>60.3903859722153</v>
       </c>
       <c r="N21" t="n">
-        <v>61.98873979169807</v>
+        <v>61.98873979169804</v>
       </c>
       <c r="O21" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608212</v>
       </c>
       <c r="P21" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606215</v>
       </c>
       <c r="Q21" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R21" t="n">
         <v>14.7981011567021</v>
       </c>
       <c r="S21" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516906</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938696</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218504</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H22" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229857</v>
       </c>
       <c r="I22" t="n">
-        <v>6.009065928593423</v>
+        <v>6.00906592859342</v>
       </c>
       <c r="J22" t="n">
         <v>14.12711781338302</v>
       </c>
       <c r="K22" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L22" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388657</v>
       </c>
       <c r="M22" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906176</v>
       </c>
       <c r="N22" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678751</v>
       </c>
       <c r="O22" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P22" t="n">
         <v>24.16705354111452</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.73201519597159</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R22" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947716</v>
       </c>
       <c r="S22" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975085</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.853766924558315</v>
       </c>
       <c r="U22" t="n">
         <v>0.01089915222840404</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620737</v>
       </c>
       <c r="H23" t="n">
-        <v>4.562061982115716</v>
+        <v>4.562061982115714</v>
       </c>
       <c r="I23" t="n">
         <v>17.17357691351312</v>
       </c>
       <c r="J23" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490847</v>
       </c>
       <c r="K23" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457606</v>
       </c>
       <c r="L23" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235576</v>
       </c>
       <c r="M23" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317966</v>
       </c>
       <c r="N23" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363604</v>
       </c>
       <c r="O23" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921879</v>
       </c>
       <c r="P23" t="n">
-        <v>64.05763120768636</v>
+        <v>64.05763120768633</v>
       </c>
       <c r="Q23" t="n">
-        <v>48.10461329146332</v>
+        <v>48.1046132914633</v>
       </c>
       <c r="R23" t="n">
-        <v>27.98209456697927</v>
+        <v>27.98209456697926</v>
       </c>
       <c r="S23" t="n">
         <v>10.15090808421452</v>
       </c>
       <c r="T23" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.0356367590449659</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532126</v>
       </c>
       <c r="H24" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I24" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143503</v>
       </c>
       <c r="J24" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967786</v>
       </c>
       <c r="K24" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934311</v>
       </c>
       <c r="L24" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191136</v>
       </c>
       <c r="M24" t="n">
-        <v>60.39038597221532</v>
+        <v>60.3903859722153</v>
       </c>
       <c r="N24" t="n">
-        <v>61.98873979169807</v>
+        <v>61.98873979169804</v>
       </c>
       <c r="O24" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608212</v>
       </c>
       <c r="P24" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606215</v>
       </c>
       <c r="Q24" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R24" t="n">
         <v>14.7981011567021</v>
       </c>
       <c r="S24" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516906</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938696</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218504</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H25" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229857</v>
       </c>
       <c r="I25" t="n">
-        <v>6.009065928593423</v>
+        <v>6.00906592859342</v>
       </c>
       <c r="J25" t="n">
         <v>14.12711781338302</v>
       </c>
       <c r="K25" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L25" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388657</v>
       </c>
       <c r="M25" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906176</v>
       </c>
       <c r="N25" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678751</v>
       </c>
       <c r="O25" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P25" t="n">
         <v>24.16705354111452</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.73201519597159</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R25" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947716</v>
       </c>
       <c r="S25" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975085</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.853766924558315</v>
       </c>
       <c r="U25" t="n">
         <v>0.01089915222840404</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620737</v>
       </c>
       <c r="H26" t="n">
-        <v>4.562061982115716</v>
+        <v>4.562061982115714</v>
       </c>
       <c r="I26" t="n">
         <v>17.17357691351312</v>
       </c>
       <c r="J26" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490847</v>
       </c>
       <c r="K26" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457606</v>
       </c>
       <c r="L26" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235576</v>
       </c>
       <c r="M26" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317966</v>
       </c>
       <c r="N26" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363604</v>
       </c>
       <c r="O26" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921879</v>
       </c>
       <c r="P26" t="n">
-        <v>64.05763120768636</v>
+        <v>64.05763120768633</v>
       </c>
       <c r="Q26" t="n">
-        <v>48.10461329146332</v>
+        <v>48.1046132914633</v>
       </c>
       <c r="R26" t="n">
-        <v>27.98209456697927</v>
+        <v>27.98209456697926</v>
       </c>
       <c r="S26" t="n">
         <v>10.15090808421452</v>
       </c>
       <c r="T26" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.0356367590449659</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532126</v>
       </c>
       <c r="H27" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I27" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143503</v>
       </c>
       <c r="J27" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967786</v>
       </c>
       <c r="K27" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934311</v>
       </c>
       <c r="L27" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191136</v>
       </c>
       <c r="M27" t="n">
-        <v>60.39038597221532</v>
+        <v>60.3903859722153</v>
       </c>
       <c r="N27" t="n">
-        <v>61.98873979169807</v>
+        <v>61.98873979169804</v>
       </c>
       <c r="O27" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608212</v>
       </c>
       <c r="P27" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606215</v>
       </c>
       <c r="Q27" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R27" t="n">
         <v>14.7981011567021</v>
       </c>
       <c r="S27" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516906</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938696</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218504</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H28" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229857</v>
       </c>
       <c r="I28" t="n">
-        <v>6.009065928593423</v>
+        <v>6.00906592859342</v>
       </c>
       <c r="J28" t="n">
         <v>14.12711781338302</v>
       </c>
       <c r="K28" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L28" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388657</v>
       </c>
       <c r="M28" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906176</v>
       </c>
       <c r="N28" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678751</v>
       </c>
       <c r="O28" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P28" t="n">
         <v>24.16705354111452</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.73201519597159</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R28" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947716</v>
       </c>
       <c r="S28" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975085</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.853766924558315</v>
       </c>
       <c r="U28" t="n">
         <v>0.01089915222840404</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620737</v>
       </c>
       <c r="H29" t="n">
-        <v>4.562061982115716</v>
+        <v>4.562061982115714</v>
       </c>
       <c r="I29" t="n">
         <v>17.17357691351312</v>
       </c>
       <c r="J29" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490847</v>
       </c>
       <c r="K29" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457606</v>
       </c>
       <c r="L29" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235576</v>
       </c>
       <c r="M29" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317966</v>
       </c>
       <c r="N29" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363604</v>
       </c>
       <c r="O29" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921879</v>
       </c>
       <c r="P29" t="n">
-        <v>64.05763120768636</v>
+        <v>64.05763120768633</v>
       </c>
       <c r="Q29" t="n">
-        <v>48.10461329146332</v>
+        <v>48.1046132914633</v>
       </c>
       <c r="R29" t="n">
-        <v>27.98209456697927</v>
+        <v>27.98209456697926</v>
       </c>
       <c r="S29" t="n">
         <v>10.15090808421452</v>
       </c>
       <c r="T29" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.0356367590449659</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532126</v>
       </c>
       <c r="H30" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I30" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143503</v>
       </c>
       <c r="J30" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967786</v>
       </c>
       <c r="K30" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934311</v>
       </c>
       <c r="L30" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191136</v>
       </c>
       <c r="M30" t="n">
-        <v>60.39038597221532</v>
+        <v>60.3903859722153</v>
       </c>
       <c r="N30" t="n">
-        <v>61.98873979169807</v>
+        <v>61.98873979169804</v>
       </c>
       <c r="O30" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608212</v>
       </c>
       <c r="P30" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606215</v>
       </c>
       <c r="Q30" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R30" t="n">
         <v>14.7981011567021</v>
       </c>
       <c r="S30" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516906</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938696</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218504</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H31" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229857</v>
       </c>
       <c r="I31" t="n">
-        <v>6.009065928593423</v>
+        <v>6.00906592859342</v>
       </c>
       <c r="J31" t="n">
         <v>14.12711781338302</v>
       </c>
       <c r="K31" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L31" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388657</v>
       </c>
       <c r="M31" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906176</v>
       </c>
       <c r="N31" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678751</v>
       </c>
       <c r="O31" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P31" t="n">
         <v>24.16705354111452</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.73201519597159</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R31" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947716</v>
       </c>
       <c r="S31" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975085</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.853766924558315</v>
       </c>
       <c r="U31" t="n">
         <v>0.01089915222840404</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620737</v>
       </c>
       <c r="H32" t="n">
-        <v>4.562061982115716</v>
+        <v>4.562061982115714</v>
       </c>
       <c r="I32" t="n">
         <v>17.17357691351312</v>
       </c>
       <c r="J32" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490847</v>
       </c>
       <c r="K32" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457606</v>
       </c>
       <c r="L32" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235576</v>
       </c>
       <c r="M32" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317966</v>
       </c>
       <c r="N32" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363604</v>
       </c>
       <c r="O32" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921879</v>
       </c>
       <c r="P32" t="n">
-        <v>64.05763120768636</v>
+        <v>64.05763120768633</v>
       </c>
       <c r="Q32" t="n">
-        <v>48.10461329146332</v>
+        <v>48.1046132914633</v>
       </c>
       <c r="R32" t="n">
-        <v>27.98209456697927</v>
+        <v>27.98209456697926</v>
       </c>
       <c r="S32" t="n">
         <v>10.15090808421452</v>
       </c>
       <c r="T32" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.0356367590449659</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532126</v>
       </c>
       <c r="H33" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I33" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143503</v>
       </c>
       <c r="J33" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967786</v>
       </c>
       <c r="K33" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934311</v>
       </c>
       <c r="L33" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191136</v>
       </c>
       <c r="M33" t="n">
-        <v>60.39038597221532</v>
+        <v>60.3903859722153</v>
       </c>
       <c r="N33" t="n">
-        <v>61.98873979169807</v>
+        <v>61.98873979169804</v>
       </c>
       <c r="O33" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608212</v>
       </c>
       <c r="P33" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606215</v>
       </c>
       <c r="Q33" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R33" t="n">
         <v>14.7981011567021</v>
       </c>
       <c r="S33" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516906</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938696</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218504</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,46 +33567,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H34" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229857</v>
       </c>
       <c r="I34" t="n">
-        <v>6.009065928593423</v>
+        <v>6.00906592859342</v>
       </c>
       <c r="J34" t="n">
         <v>14.12711781338302</v>
       </c>
       <c r="K34" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L34" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388657</v>
       </c>
       <c r="M34" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906176</v>
       </c>
       <c r="N34" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678751</v>
       </c>
       <c r="O34" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P34" t="n">
         <v>24.16705354111452</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.73201519597159</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R34" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947716</v>
       </c>
       <c r="S34" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975085</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.853766924558315</v>
       </c>
       <c r="U34" t="n">
         <v>0.01089915222840404</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620737</v>
       </c>
       <c r="H35" t="n">
-        <v>4.562061982115716</v>
+        <v>4.562061982115714</v>
       </c>
       <c r="I35" t="n">
         <v>17.17357691351312</v>
       </c>
       <c r="J35" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490847</v>
       </c>
       <c r="K35" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457606</v>
       </c>
       <c r="L35" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235576</v>
       </c>
       <c r="M35" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317966</v>
       </c>
       <c r="N35" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363604</v>
       </c>
       <c r="O35" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921879</v>
       </c>
       <c r="P35" t="n">
-        <v>64.05763120768636</v>
+        <v>64.05763120768633</v>
       </c>
       <c r="Q35" t="n">
-        <v>48.10461329146332</v>
+        <v>48.1046132914633</v>
       </c>
       <c r="R35" t="n">
-        <v>27.98209456697927</v>
+        <v>27.98209456697926</v>
       </c>
       <c r="S35" t="n">
         <v>10.15090808421452</v>
       </c>
       <c r="T35" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.0356367590449659</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532126</v>
       </c>
       <c r="H36" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I36" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143503</v>
       </c>
       <c r="J36" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967786</v>
       </c>
       <c r="K36" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934311</v>
       </c>
       <c r="L36" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191136</v>
       </c>
       <c r="M36" t="n">
-        <v>60.39038597221532</v>
+        <v>60.3903859722153</v>
       </c>
       <c r="N36" t="n">
-        <v>61.98873979169807</v>
+        <v>61.98873979169804</v>
       </c>
       <c r="O36" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608212</v>
       </c>
       <c r="P36" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606215</v>
       </c>
       <c r="Q36" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R36" t="n">
         <v>14.7981011567021</v>
       </c>
       <c r="S36" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516906</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938696</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218504</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,46 +33804,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H37" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229857</v>
       </c>
       <c r="I37" t="n">
-        <v>6.009065928593423</v>
+        <v>6.00906592859342</v>
       </c>
       <c r="J37" t="n">
         <v>14.12711781338302</v>
       </c>
       <c r="K37" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L37" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388657</v>
       </c>
       <c r="M37" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906176</v>
       </c>
       <c r="N37" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678751</v>
       </c>
       <c r="O37" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P37" t="n">
         <v>24.16705354111452</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.73201519597159</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R37" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947716</v>
       </c>
       <c r="S37" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975085</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.853766924558315</v>
       </c>
       <c r="U37" t="n">
         <v>0.01089915222840404</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620737</v>
       </c>
       <c r="H38" t="n">
-        <v>4.562061982115716</v>
+        <v>4.562061982115714</v>
       </c>
       <c r="I38" t="n">
         <v>17.17357691351312</v>
       </c>
       <c r="J38" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490847</v>
       </c>
       <c r="K38" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457606</v>
       </c>
       <c r="L38" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235576</v>
       </c>
       <c r="M38" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317966</v>
       </c>
       <c r="N38" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363604</v>
       </c>
       <c r="O38" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921879</v>
       </c>
       <c r="P38" t="n">
-        <v>64.05763120768636</v>
+        <v>64.05763120768633</v>
       </c>
       <c r="Q38" t="n">
-        <v>48.10461329146332</v>
+        <v>48.1046132914633</v>
       </c>
       <c r="R38" t="n">
-        <v>27.98209456697927</v>
+        <v>27.98209456697926</v>
       </c>
       <c r="S38" t="n">
         <v>10.15090808421452</v>
       </c>
       <c r="T38" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.0356367590449659</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532126</v>
       </c>
       <c r="H39" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I39" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143503</v>
       </c>
       <c r="J39" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967786</v>
       </c>
       <c r="K39" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934311</v>
       </c>
       <c r="L39" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191136</v>
       </c>
       <c r="M39" t="n">
-        <v>60.39038597221532</v>
+        <v>60.3903859722153</v>
       </c>
       <c r="N39" t="n">
-        <v>61.98873979169807</v>
+        <v>61.98873979169804</v>
       </c>
       <c r="O39" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608212</v>
       </c>
       <c r="P39" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606215</v>
       </c>
       <c r="Q39" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R39" t="n">
         <v>14.7981011567021</v>
       </c>
       <c r="S39" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516906</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938696</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218504</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,46 +34041,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H40" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229857</v>
       </c>
       <c r="I40" t="n">
-        <v>6.009065928593423</v>
+        <v>6.00906592859342</v>
       </c>
       <c r="J40" t="n">
         <v>14.12711781338302</v>
       </c>
       <c r="K40" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L40" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388657</v>
       </c>
       <c r="M40" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906176</v>
       </c>
       <c r="N40" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678751</v>
       </c>
       <c r="O40" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P40" t="n">
         <v>24.16705354111452</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.73201519597159</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R40" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947716</v>
       </c>
       <c r="S40" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975085</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.853766924558315</v>
       </c>
       <c r="U40" t="n">
         <v>0.01089915222840404</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620737</v>
       </c>
       <c r="H41" t="n">
-        <v>4.562061982115716</v>
+        <v>4.562061982115714</v>
       </c>
       <c r="I41" t="n">
         <v>17.17357691351312</v>
       </c>
       <c r="J41" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490847</v>
       </c>
       <c r="K41" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457606</v>
       </c>
       <c r="L41" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235576</v>
       </c>
       <c r="M41" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317966</v>
       </c>
       <c r="N41" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363604</v>
       </c>
       <c r="O41" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921879</v>
       </c>
       <c r="P41" t="n">
-        <v>64.05763120768636</v>
+        <v>64.05763120768633</v>
       </c>
       <c r="Q41" t="n">
-        <v>48.10461329146332</v>
+        <v>48.1046132914633</v>
       </c>
       <c r="R41" t="n">
-        <v>27.98209456697927</v>
+        <v>27.98209456697926</v>
       </c>
       <c r="S41" t="n">
         <v>10.15090808421452</v>
       </c>
       <c r="T41" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.0356367590449659</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532126</v>
       </c>
       <c r="H42" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I42" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143503</v>
       </c>
       <c r="J42" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967786</v>
       </c>
       <c r="K42" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934311</v>
       </c>
       <c r="L42" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191136</v>
       </c>
       <c r="M42" t="n">
-        <v>60.39038597221532</v>
+        <v>60.3903859722153</v>
       </c>
       <c r="N42" t="n">
-        <v>61.98873979169807</v>
+        <v>61.98873979169804</v>
       </c>
       <c r="O42" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608212</v>
       </c>
       <c r="P42" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606215</v>
       </c>
       <c r="Q42" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R42" t="n">
         <v>14.7981011567021</v>
       </c>
       <c r="S42" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516906</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938696</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218504</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H43" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229857</v>
       </c>
       <c r="I43" t="n">
-        <v>6.009065928593423</v>
+        <v>6.00906592859342</v>
       </c>
       <c r="J43" t="n">
         <v>14.12711781338302</v>
       </c>
       <c r="K43" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L43" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388657</v>
       </c>
       <c r="M43" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906176</v>
       </c>
       <c r="N43" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678751</v>
       </c>
       <c r="O43" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P43" t="n">
         <v>24.16705354111452</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.73201519597159</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R43" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947716</v>
       </c>
       <c r="S43" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975085</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.853766924558315</v>
       </c>
       <c r="U43" t="n">
         <v>0.01089915222840404</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620737</v>
       </c>
       <c r="H44" t="n">
-        <v>4.562061982115716</v>
+        <v>4.562061982115714</v>
       </c>
       <c r="I44" t="n">
         <v>17.17357691351312</v>
       </c>
       <c r="J44" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490847</v>
       </c>
       <c r="K44" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457606</v>
       </c>
       <c r="L44" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235576</v>
       </c>
       <c r="M44" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317966</v>
       </c>
       <c r="N44" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363604</v>
       </c>
       <c r="O44" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921879</v>
       </c>
       <c r="P44" t="n">
-        <v>64.05763120768636</v>
+        <v>64.05763120768633</v>
       </c>
       <c r="Q44" t="n">
-        <v>48.10461329146332</v>
+        <v>48.1046132914633</v>
       </c>
       <c r="R44" t="n">
-        <v>27.98209456697927</v>
+        <v>27.98209456697926</v>
       </c>
       <c r="S44" t="n">
         <v>10.15090808421452</v>
       </c>
       <c r="T44" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991729</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.0356367590449659</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532126</v>
       </c>
       <c r="H45" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200764</v>
       </c>
       <c r="I45" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143503</v>
       </c>
       <c r="J45" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967786</v>
       </c>
       <c r="K45" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934311</v>
       </c>
       <c r="L45" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191136</v>
       </c>
       <c r="M45" t="n">
-        <v>60.39038597221532</v>
+        <v>60.3903859722153</v>
       </c>
       <c r="N45" t="n">
-        <v>61.98873979169807</v>
+        <v>61.98873979169804</v>
       </c>
       <c r="O45" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608212</v>
       </c>
       <c r="P45" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606215</v>
       </c>
       <c r="Q45" t="n">
-        <v>30.42412659399957</v>
+        <v>30.42412659399956</v>
       </c>
       <c r="R45" t="n">
         <v>14.7981011567021</v>
       </c>
       <c r="S45" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516906</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938696</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218504</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.1998177908540738</v>
       </c>
       <c r="H46" t="n">
-        <v>1.776561813229858</v>
+        <v>1.776561813229857</v>
       </c>
       <c r="I46" t="n">
-        <v>6.009065928593423</v>
+        <v>6.00906592859342</v>
       </c>
       <c r="J46" t="n">
         <v>14.12711781338302</v>
       </c>
       <c r="K46" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650057</v>
       </c>
       <c r="L46" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388657</v>
       </c>
       <c r="M46" t="n">
-        <v>31.32234697906177</v>
+        <v>31.32234697906176</v>
       </c>
       <c r="N46" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678751</v>
       </c>
       <c r="O46" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453764</v>
       </c>
       <c r="P46" t="n">
         <v>24.16705354111452</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.73201519597159</v>
+        <v>16.73201519597158</v>
       </c>
       <c r="R46" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947716</v>
       </c>
       <c r="S46" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975085</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.853766924558315</v>
       </c>
       <c r="U46" t="n">
         <v>0.01089915222840404</v>
@@ -35404,13 +35404,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>30.39929300540031</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>44.65904329030317</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,22 +35419,22 @@
         <v>68.39702598806991</v>
       </c>
       <c r="N11" t="n">
-        <v>62.12790068719424</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>31.520871972693</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>49.80658962388625</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>36.23621915821164</v>
+        <v>36.23621915821166</v>
       </c>
       <c r="S11" t="n">
-        <v>22.73598032068647</v>
+        <v>22.73598032068649</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35480,7 +35480,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>52.22885684391455</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>52.22885684391446</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35550,46 +35550,46 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>58.59251376432423</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="F13" t="n">
-        <v>68.39702598806991</v>
-      </c>
-      <c r="G13" t="n">
-        <v>50.7602528207572</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>63.97361927687459</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3.408854232371898</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35641,7 +35641,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>30.39929300540028</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -35650,28 +35650,28 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>58.87461752662941</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>36.59328835357776</v>
+      </c>
+      <c r="O14" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" t="n">
-        <v>40.61108128606917</v>
+        <v>57.05548430630965</v>
       </c>
       <c r="Q14" t="n">
-        <v>49.80658962388625</v>
+        <v>49.80658962388618</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>36.23621915821158</v>
       </c>
       <c r="S14" t="n">
-        <v>22.73598032068647</v>
+        <v>22.7359803206864</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35705,7 +35705,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>52.22885684391474</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>52.22885684391455</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35787,25 +35787,25 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="F16" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.930208499698731</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>58.59251376432415</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.16910705312909</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -35826,7 +35826,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.04341077717654</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35875,10 +35875,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>16.94827559451692</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>65.63350978653176</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35887,16 +35887,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>48.68523419201482</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35908,10 +35908,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>68.39702598806991</v>
@@ -36112,10 +36112,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>16.94827559451692</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36139,19 +36139,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>43.63661430849646</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.39702598806993</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>26.68833871397954</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="V20" t="n">
         <v>21.99689547803524</v>
@@ -36349,13 +36349,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>16.94827559451692</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>65.63350978653175</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36379,10 +36379,10 @@
         <v>68.39702598806993</v>
       </c>
       <c r="R23" t="n">
-        <v>68.39702598806993</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>48.6852341920148</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -36589,28 +36589,28 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>32.96438733281771</v>
+        <v>32.96438733281768</v>
       </c>
       <c r="J26" t="n">
-        <v>82.30317859881796</v>
+        <v>258.1636583777747</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>63.0916308731486</v>
       </c>
       <c r="L26" t="n">
-        <v>61.43971185404683</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="N26" t="n">
-        <v>433.3080812606695</v>
+        <v>245.3141277057805</v>
       </c>
       <c r="O26" t="n">
-        <v>305.7915946023644</v>
+        <v>71.72427447050281</v>
       </c>
       <c r="P26" t="n">
-        <v>394.2912351320691</v>
+        <v>230.8331034081954</v>
       </c>
       <c r="Q26" t="n">
         <v>273.1792742376045</v>
@@ -36619,7 +36619,7 @@
         <v>107.1463901535308</v>
       </c>
       <c r="S26" t="n">
-        <v>25.30107464810389</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36662,7 +36662,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>44.37732844655483</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>44.37732844655492</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36744,7 +36744,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>12.15766268719936</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>164.9811667743924</v>
+        <v>47.89955498799706</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>127.0992840106137</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36777,7 +36777,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>2.139990462981136</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>32.96438733281771</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>82.30317859881796</v>
+        <v>258.1636583777747</v>
       </c>
       <c r="K29" t="n">
-        <v>179.1877416597314</v>
+        <v>63.09163087314862</v>
       </c>
       <c r="L29" t="n">
-        <v>61.43971185404683</v>
+        <v>274.7922566990866</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="N29" t="n">
-        <v>433.3080812606695</v>
+        <v>289.467059604281</v>
       </c>
       <c r="O29" t="n">
-        <v>415.7565198968355</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>394.2912351320691</v>
+        <v>59.62057863372713</v>
       </c>
       <c r="Q29" t="n">
-        <v>52.37168395130367</v>
+        <v>273.1792742376045</v>
       </c>
       <c r="R29" t="n">
-        <v>38.80131348562907</v>
+        <v>38.80131348562906</v>
       </c>
       <c r="S29" t="n">
         <v>25.30107464810389</v>
@@ -36887,28 +36887,28 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>44.37732844655483</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.3033911730327</v>
+        <v>50.03954545097798</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>30.83543828855905</v>
+        <v>127.0992840106138</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>32.96438733281768</v>
+        <v>32.96438733281771</v>
       </c>
       <c r="J32" t="n">
-        <v>258.1636583777747</v>
+        <v>82.30317859881794</v>
       </c>
       <c r="K32" t="n">
-        <v>400.20285994716</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>433.3080812606695</v>
       </c>
       <c r="M32" t="n">
-        <v>74.64632922401735</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="N32" t="n">
         <v>76.82183138438849</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>367.2691790529846</v>
       </c>
       <c r="P32" t="n">
-        <v>33.99104125395789</v>
+        <v>173.2761168446405</v>
       </c>
       <c r="Q32" t="n">
-        <v>273.1792742376045</v>
+        <v>52.37168395130366</v>
       </c>
       <c r="R32" t="n">
-        <v>107.1463901535308</v>
+        <v>38.80131348562906</v>
       </c>
       <c r="S32" t="n">
-        <v>25.30107464810386</v>
+        <v>25.30107464810389</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37127,7 +37127,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>44.37732844655483</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>44.37732844655492</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37203,13 +37203,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>53.67856535622627</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>5.017878287708285</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -37221,7 +37221,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>58.69644364393475</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37300,19 +37300,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>55.08398553735948</v>
+        <v>55.08398553735951</v>
       </c>
       <c r="J35" t="n">
-        <v>104.4227768033597</v>
+        <v>280.2832565823165</v>
       </c>
       <c r="K35" t="n">
-        <v>364.9110552725996</v>
+        <v>85.21122907769043</v>
       </c>
       <c r="L35" t="n">
-        <v>116.0244360510205</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>324.9801423994963</v>
+        <v>337.4314347505352</v>
       </c>
       <c r="N35" t="n">
         <v>98.94142958893029</v>
@@ -37321,19 +37321,19 @@
         <v>93.84387267504464</v>
       </c>
       <c r="P35" t="n">
-        <v>81.74017683826894</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>74.49128215584545</v>
+        <v>295.2988724421463</v>
       </c>
       <c r="R35" t="n">
-        <v>60.92091169017084</v>
+        <v>129.2659883580726</v>
       </c>
       <c r="S35" t="n">
-        <v>47.42067285264567</v>
+        <v>47.42067285264569</v>
       </c>
       <c r="T35" t="n">
-        <v>22.11959820454176</v>
+        <v>22.11959820454179</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>6.993807017681523</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37412,7 +37412,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>6.993807017681491</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>97.60856006252358</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>97.60856006252351</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37537,22 +37537,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>55.08398553735948</v>
+        <v>55.08398553735951</v>
       </c>
       <c r="J38" t="n">
-        <v>104.4227768033597</v>
+        <v>280.2832565823165</v>
       </c>
       <c r="K38" t="n">
-        <v>168.3878239118015</v>
+        <v>82.21498288260319</v>
       </c>
       <c r="L38" t="n">
-        <v>274.7922566990866</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="M38" t="n">
-        <v>96.76592742855915</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="N38" t="n">
-        <v>364.9110552725996</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>93.84387267504464</v>
@@ -37564,13 +37564,13 @@
         <v>74.49128215584545</v>
       </c>
       <c r="R38" t="n">
-        <v>60.92091169017084</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.42067285264567</v>
+        <v>47.42067285264569</v>
       </c>
       <c r="T38" t="n">
-        <v>22.11959820454176</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>6.993807017681491</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37652,7 +37652,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>6.99380701768152</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -37680,7 +37680,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>56.22816087866029</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>97.60856006252351</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37740,10 +37740,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>16.99435655966113</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.38604262420216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>55.08398553735948</v>
+        <v>55.08398553735951</v>
       </c>
       <c r="J41" t="n">
-        <v>104.4227768033597</v>
+        <v>280.2832565823165</v>
       </c>
       <c r="K41" t="n">
-        <v>179.4131865987247</v>
+        <v>152.560806061347</v>
       </c>
       <c r="L41" t="n">
-        <v>83.55931005858861</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>96.76592742855915</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="N41" t="n">
         <v>98.94142958893029</v>
       </c>
       <c r="O41" t="n">
-        <v>317.7711155681287</v>
+        <v>93.84387267504464</v>
       </c>
       <c r="P41" t="n">
-        <v>364.9110552725996</v>
+        <v>81.74017683826894</v>
       </c>
       <c r="Q41" t="n">
-        <v>74.49128215584545</v>
+        <v>295.2988724421463</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>47.42067285264567</v>
+        <v>0.1172868667287137</v>
       </c>
       <c r="T41" t="n">
-        <v>22.11959820454176</v>
+        <v>22.11959820454179</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37850,10 +37850,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>6.99380701768152</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6.993807017681491</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>97.60856006252351</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.60856006252358</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>55.08398553735948</v>
+        <v>55.08398553735951</v>
       </c>
       <c r="J44" t="n">
-        <v>104.4227768033597</v>
+        <v>280.2832565823165</v>
       </c>
       <c r="K44" t="n">
-        <v>57.90146359235401</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="L44" t="n">
         <v>83.55931005858861</v>
@@ -38026,25 +38026,25 @@
         <v>96.76592742855915</v>
       </c>
       <c r="N44" t="n">
-        <v>310.6475144854234</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>229.0191301358655</v>
+        <v>329.1080667879781</v>
       </c>
       <c r="P44" t="n">
-        <v>81.74017683826894</v>
+        <v>36.38247898662151</v>
       </c>
       <c r="Q44" t="n">
-        <v>295.2988724421463</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>60.92091169017084</v>
+        <v>129.2659883580726</v>
       </c>
       <c r="S44" t="n">
-        <v>47.42067285264567</v>
+        <v>47.42067285264569</v>
       </c>
       <c r="T44" t="n">
-        <v>22.11959820454176</v>
+        <v>22.11959820454179</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>6.993807017681491</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38129,7 +38129,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>6.99380701768152</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>63.0510250012866</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>34.5575350612369</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>78.7281033091358</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -38214,10 +38214,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>16.99435655966113</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.886100193726647</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
